--- a/project_context/consolidated_reports.xlsx
+++ b/project_context/consolidated_reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,12 +511,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coding Pirates</t>
+          <t>AgriShield IoT Rover</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\2025CodingPirates - YASH KASAUDHAN.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\AgriShield IoT Rover- PRAGATI VARSHNEY.pdf</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -526,10 +526,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -538,130 +538,130 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>61.5</v>
+        <v>65</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The project by Coding Pirates aims to digitize and showcase the monasteries of Sikkim for tourism and cultural preservation. The deck provides a comprehensive overview of the problem and the proposed solution, including a detailed technical architecture. However, there are gaps in baseline data, cost estimates, and security considerations. The project demonstrates strong potential impact and a clear adoption path, but lacks detailed metrics and evaluation plans.</t>
+          <t>The AgriShield IoT Rover project presents a promising AI-powered solution for precision agriculture, focusing on intelligent pesticide application. The project is well-framed with a clear problem statement and a detailed technical approach. However, it lacks comprehensive baselines and cost estimates, and the privacy and security aspects are minimally addressed. The architecture is robust, leveraging IoT and AI technologies, but the evaluation plan and adoption path need further development.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>The workflow involves creating a digital platform for virtual tours and cultural preservation of Sikkim's monasteries. It includes a frontend for user interaction, a backend for data management, and AI components for enhanced search capabilities.</t>
+          <t>The workflow involves an AI-powered IoT rover designed for precision agriculture. It captures plant data using cameras and sensors, processes the data with AI to detect plant infections, and controls pesticide spraying based on infection levels. The system includes smart navigation and obstacle avoidance, and uploads data to a cloud server for monitoring and alerts.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1. The project addresses a significant cultural and tourism challenge with a well-defined problem statement. 2. The technical architecture is robust and leverages mature technologies, which enhances feasibility.</t>
+          <t>1. The project addresses a significant problem in agriculture with a clear and innovative solution. 2. The use of AI and IoT for precision farming is well-articulated and technically feasible.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1. The deck lacks detailed baseline data and cost estimates, which are crucial for assessing the project's viability. 2. Security considerations are minimally addressed, posing potential risks.</t>
+          <t>1. The project lacks detailed baselines and cost estimates, which are crucial for assessing feasibility. 2. Privacy and security considerations are minimally addressed, which could be a concern for data-sensitive applications.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1. The use of React, Node.js, and PostGIS is appropriate for the project's requirements, ensuring scalability and performance. 2. The AI components for image recognition and NLP search are well-integrated but require further validation.</t>
+          <t>1. The architecture is robust, but the evaluation plan lacks specific metrics and KPIs. 2. The deployment plan is not detailed enough to assess the readiness for real-world application.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1. Include detailed metrics and evaluation plans to measure the project's success effectively. 2. Enhance the security framework to protect user data and ensure compliance with data protection laws.</t>
+          <t>1. Develop a more comprehensive evaluation plan with clear metrics and KPIs. 2. Address privacy and security concerns more thoroughly, possibly by incorporating encryption and data anonymization techniques.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALT_F4</t>
+          <t>AlgoYoddhas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\ALT_f4 - VAIBHAV KUMAR.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\AlgoYoddhas - ADWAIT PATEL.pdf</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>54</v>
+        <v>49.5</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>The team proposes an AI-driven chatbot for public health awareness, focusing on disease prevention and multilingual support. The solution leverages NLP and ML models, integrating trusted medical data sources. While the idea is innovative, the presentation lacks detailed metrics, baselines, and a comprehensive evaluation plan. The architecture and scalability are addressed at a high level, but specifics on latency, cost, and security are minimal.</t>
+          <t>AlgoYoddhas presents a project for an integrated platform aimed at crowdsourced ocean hazard reporting and social media analytics. The system involves a mobile and web application for users to submit geotagged reports, processed using AI and NLP for real-time hazard analysis. The technical stack includes Flutter, Node.js, and MongoDB, with a workflow ensuring data collection, processing, and feedback. The platform aims to improve disaster management through faster response times and enhanced situational awareness. The diagrams provide a clear view of the architecture and workflow, supporting the text claims.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>No diagrams were provided, so the workflow is inferred from the text. The process involves data collection, preprocessing, NLP model training, chatbot integration, and deployment. The chatbot is designed to be multilingual and continuously learns from user feedback.</t>
+          <t>The workflow involves users submitting geotagged reports via mobile and web applications, which are processed using AI and NLP for real-time hazard analysis. The data is stored in a database and used for GIS mapping, with decision points for report validation and alerts to authorities.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1. The integration of AI with vernacular language support is a strong point, addressing a significant need in diverse linguistic regions. 2. The use of trusted medical data sources enhances the credibility of the chatbot.</t>
+          <t>1. The project addresses a critical need in disaster management with a focus on real-time hazard reporting and analysis. 2. The use of AI and NLP for processing reports is innovative and enhances the platform's capabilities.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1. The presentation lacks diagrams, which makes it difficult to visualize the architecture and workflow. 2. There is insufficient detail on the evaluation plan and metrics to measure success.</t>
+          <t>1. The presentation lacks detailed baselines and assumptions, which are crucial for understanding the project's starting point and context. 2. Privacy and compliance aspects are minimally covered, which is a significant concern for user data handling.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1. The choice of technologies like TensorFlow/PyTorch and cloud deployment is appropriate, but more details on the specific architecture would be beneficial. 2. The security and privacy aspects are not thoroughly addressed, which is critical for handling sensitive health data.</t>
+          <t>1. The technical stack is well-chosen for scalability, but the presentation lacks detailed latency and cost estimates, which are important for assessing feasibility. 2. Security measures are not adequately addressed, posing potential risks to the platform's integrity.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1. Include detailed diagrams to illustrate the architecture and workflow. 2. Provide a comprehensive evaluation plan with clear metrics and baselines. 3. Address security and privacy concerns more thoroughly, possibly with a dedicated section on compliance with health data regulations.</t>
+          <t>1. Provide more detailed baselines and assumptions to strengthen the problem framing. 2. Enhance the privacy and compliance section to ensure user data is handled securely and in accordance with regulations. 3. Include detailed latency and cost estimates to better assess the platform's feasibility.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kairos</t>
+          <t>Angaari Paltan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\AgriNiti - TEENA gla.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\Angaari Paltan - ISHITA GOYAL.pdf</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -670,183 +670,183 @@
         <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>The team Kairos presents a solution aimed at empowering small and marginal farmers through an AI-driven crop advisory system. The solution integrates soil, climate, and market data to provide crop recommendations, pest and disease detection, and localized weather alerts. The approach leverages standard web technologies and government APIs, with a focus on accessibility through a multilingual mobile app. However, the presentation lacks detailed diagrams and metrics, and the assumptions and baselines are not well-defined.</t>
+          <t>The team presented an AI-driven internship recommendation engine, focusing on user profiling and hybrid recommendation models. The system aims to enhance operational efficiency and provide equitable access to opportunities. The presentation included a flowchart detailing the workflow from user input to internship recommendations, with additional features like resume modification and mock interviews. However, the presentation lacked detailed baselines, privacy considerations, and security measures.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>No diagrams were provided, so the workflow could not be analyzed.</t>
+          <t>The workflow involves user input processed by a server to generate internship recommendations. Additional features include resume modification, mock interviews, and practice questions, aiming to enhance user preparation and access to opportunities.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1. The solution addresses a significant problem for small and marginal farmers, aiming to increase income and reduce crop loss. 2. The use of AI for crop recommendations and pest detection is innovative and has the potential for high impact.</t>
+          <t>1. The use of a hybrid recommendation engine combining collaborative filtering and skill matching is innovative and enhances the relevance of recommendations. 2. The inclusion of mock interviews and resume modification features adds value to the user experience.</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1. The presentation lacks detailed diagrams, which makes it difficult to assess the technical feasibility and architecture of the solution. 2. There is insufficient evidence of a well-defined evaluation plan or metrics to measure success.</t>
+          <t>1. The presentation lacks detailed baselines and metrics for evaluating the system's performance. 2. Privacy and security considerations are minimally addressed, which is critical for handling user data.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1. The integration with existing government APIs is a strong point, but the scalability and latency of the system are not addressed. 2. The use of standard web technologies is appropriate, but more details on the backend architecture are needed.</t>
+          <t>1. The architecture is described as lightweight, which is beneficial for cost and scalability, but more details on the technical stack and deployment strategy would strengthen the proposal. 2. The data collection process is mentioned, but specifics on data validation and handling inaccuracies are needed.</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1. Include detailed diagrams to illustrate the system architecture and data flow. 2. Define clear metrics and an evaluation plan to measure the impact and success of the solution. 3. Address potential risks and provide mitigation strategies, especially concerning data privacy and security.</t>
+          <t>1. Include more detailed metrics and evaluation plans to measure the system's effectiveness. 2. Address privacy and security concerns more thoroughly, possibly by outlining compliance with relevant regulations. 3. Provide a clearer deployment plan with timelines and potential challenges.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algo Wizards</t>
+          <t>BenzeneCoder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\Algo wizards - LAXMI gla.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\BenzeneCoder - SARTHAK TIWARI.pdf</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>58.5</v>
+        <v>67.5</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Algo Wizards present an AI-based Farmer Query Support and Advisory System aimed at addressing the challenges faced by farmers in accessing real-time, accurate advice. The solution leverages multilingual NLP and voice-based interaction to break language barriers and provide instant, expert-level guidance. While the problem is well-framed and the solution innovative, the deck lacks detailed baselines, metrics, and a comprehensive evaluation plan. The architecture is modular, allowing scalability, but lacks detailed latency and cost estimates. Privacy, compliance, and security considerations are minimally addressed.</t>
+          <t>The project by BenzeneCoder aims to create a digital mental health support system for students in higher education. It features a web-based platform with AI-guided first aid, confidential booking, and an admin dashboard. The technical stack includes Python, React, and Node.js, with a focus on integrating an AI chatbot and booking system. The project addresses issues like stigma, early intervention, and counselor utilization. The diagram on slide 3 provides a clear flow control of the application, supporting the text description. However, there are gaps in baselines, datasets, and detailed metrics.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>The workflow involves farmers submitting queries via voice, text, or image, which are then preprocessed and analyzed by an AI engine. The system generates advisory outputs in local languages, providing guidance on crop diseases, fertilizer recommendations, weather-based irrigation, and government schemes.</t>
+          <t>The workflow involves a user journey from login to accessing resources or booking appointments, with options for AI chatbot interaction and peer support forums. The flowchart on slide 3 effectively illustrates this process.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1. The solution effectively addresses language barriers and accessibility issues for non-literate users through multilingual NLP and voice-based interaction. 2. The modular architecture allows for easy scaling across different regions and crop types.</t>
+          <t>1. The project addresses a significant issue in student mental health with a comprehensive approach. 2. The use of open-source tools makes the solution accessible and cost-effective. 3. The flowchart provides a clear visualization of the user journey.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1. The deck lacks detailed baselines and metrics to evaluate the effectiveness of the solution. 2. Privacy, compliance, and security considerations are not adequately addressed.</t>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the solution's effectiveness. 2. Metrics and KPIs are not clearly defined, making it difficult to assess the project's success.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1. The technical stack is well-defined, but the absence of latency and cost estimates raises concerns about the feasibility of large-scale deployment. 2. The use of APIs for weather, government schemes, and translation is a strong point, but the integration details are not provided.</t>
+          <t>1. The integration of AI chatbot and booking system is well-planned, but the limitations of AI in understanding complex mental health issues need more emphasis. 2. Security measures are mentioned but not detailed enough to ensure data protection.</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1. Include detailed baselines and metrics to measure the impact and effectiveness of the solution. 2. Address privacy, compliance, and security concerns to ensure user trust and data protection. 3. Provide latency and cost estimates to assess the feasibility of scaling the solution.</t>
+          <t>1. Include more detailed baselines and datasets to strengthen the evaluation plan. 2. Define clear metrics and KPIs to measure the project's impact. 3. Provide more information on security protocols to ensure data privacy and compliance.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AlgoYoddhas</t>
+          <t>BitBots</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\AlgoYoddhas - ADWAIT PATEL.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\BitBots-SIH2025-IDEA-Presentation - ARCHIT JAIN.pdf</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>The AlgoYoddhas team proposes a mobile and web platform for crowdsourced ocean hazard reporting, integrating social media analytics. The solution includes geotagged reports, a real-time dashboard, and an NLP engine for sentiment analysis. While the proposal outlines a feasible approach using open-source GIS and NLP tools, it lacks detailed diagrams and metrics. The team identifies challenges such as data verification and limited connectivity, offering solutions like role-based access and AI filters. However, the absence of diagrams and specific metrics limits the evaluation of their technical approach and scalability.</t>
+          <t>BitBots presents a solution for sentiment analysis of comments from the MCA website using a fine-tuned LLM and vector database for storage and analysis. The architecture is well-documented with a clear data flow diagram, but there are gaps in privacy, security, and baseline details. The approach is technically feasible with a strong focus on scalability and operational efficiency.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>No diagrams were provided, so the workflow analysis is based solely on the text description. The proposed workflow involves users submitting geotagged reports, which are then analyzed by an NLP engine and displayed on a real-time dashboard. The platform supports multilingual and offline capabilities, aiming to enhance situational awareness and response times.</t>
+          <t>The workflow involves collecting comments from the MCA website, processing them using NLP techniques for sentiment analysis, and storing them in a vector database. The system uses a fine-tuned LLM for classification and summarization, with a frontend for visualization and insights. The backend is built with Python and various libraries, while the frontend uses React.js for interactive dashboards.</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1. The platform addresses a critical need for real-time hazard reporting and social media analytics in disaster management. 2. The use of open-source GIS and NLP tools is a practical approach to ensure feasibility and cost-effectiveness.</t>
+          <t>1. The solution is technically feasible and leverages mature technologies like multilingual transformer models and vector databases. 2. The architecture is well-documented with a clear data flow diagram, ensuring a comprehensive understanding of the system's workflow.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1. The proposal lacks detailed diagrams, which makes it difficult to fully understand the technical architecture and workflow. 2. There is insufficient information on the datasets and baselines used for the NLP engine.</t>
+          <t>1. The proposal lacks detailed information on privacy and compliance measures, which are critical for handling sensitive data. 2. Security considerations are minimally addressed, which could pose risks in real-world deployment.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1. The absence of latency and cost estimates raises concerns about the platform's scalability and performance in real-world scenarios. 2. The security and privacy compliance aspects are not adequately addressed, which are critical for handling sensitive data.</t>
+          <t>1. The use of a fine-tuned LLM and vector database is appropriate for the task, but the proposal could benefit from more detailed latency and cost estimates. 2. The deployment plan mentions Docker and horizontal scaling, but lacks specifics on how these will be implemented.</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1. Include detailed architecture diagrams to better illustrate the technical workflow and system components. 2. Provide specific metrics and KPIs to evaluate the platform's effectiveness and impact. 3. Address privacy and security concerns with clear compliance strategies.</t>
+          <t>1. Enhance the proposal by including detailed privacy and compliance strategies to ensure data protection. 2. Provide a more comprehensive security plan to address potential vulnerabilities. 3. Include baseline comparisons to demonstrate the effectiveness of the proposed solution.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alt-Era</t>
+          <t>Black Order</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\Alt-Era - KRISH PATHAK.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\Black_Order - YASH SHARMA.pdf</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
@@ -868,64 +868,64 @@
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K7" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Alt-Era presents a solution for early detection of water-borne diseases using a mobile app and SMS-based platform integrated with IoT and AI/ML technologies. The solution is innovative in its combination of health and water data for outbreak prediction, and it is designed to work in low-bandwidth environments with multilingual support. However, the deck lacks detailed baselines, datasets, and privacy/security considerations. The architecture is well-defined, but cost and latency estimates are missing.</t>
+          <t>The 'SAHAJ' system by Team Black Order is a comprehensive mental health support platform designed for the Smart India Hackathon 2024. It integrates a mobile app, website, and admin dashboard to provide AI-guided support, music therapy, and avatar-based therapy sessions. The system is built on a robust tech stack including React, Node.js, and MySQL, and features components like user authentication, mood tracking, and chatbot integration. The feasibility analysis covers technical, operational, and economic aspects, with a focus on scalability and privacy compliance. The impact section highlights benefits for students and institutions, emphasizing early intervention and stigma reduction.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>No diagrams were provided, so the workflow analysis is based solely on the text description. The proposed workflow involves data collection through mobile apps, SMS, and IoT sensors, followed by AI/ML-driven data processing for outbreak detection and notification to officials and communities.</t>
+          <t>The workflow of the 'SAHAJ' system is well-structured, focusing on user interaction through a mobile app and website, supported by an admin dashboard for analytics. The architecture diagram provides a clear view of the technical components and their interactions, ensuring a seamless user experience.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1. The solution is innovative, combining health and water data with AI/ML for early outbreak prediction. 2. The platform is designed to work in low-bandwidth and offline environments, which is crucial for rural areas. 3. Multilingual support enhances accessibility for tribal communities.</t>
+          <t>1. The integration of AI-guided support and music therapy is innovative and addresses a significant need in mental health support. 2. The architecture diagram provides a clear and detailed view of the system's technical components, which is crucial for understanding the implementation.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1. The deck lacks diagrams, which makes it difficult to visualize the architecture and workflow. 2. There is insufficient detail on baselines and datasets used for AI/ML models. 3. Privacy and security considerations are not addressed in the deck.</t>
+          <t>1. The baselines and datasets are not well-defined, which could impact the evaluation of the system's effectiveness. 2. The assumptions made in the feasibility analysis are not fully supported by evidence, leading to potential gaps in the implementation plan.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1. The use of low-cost IoT sensors and existing ASHA workforce is a practical approach to data collection. 2. The backend technologies (Django/Node.js) and AI/ML frameworks (TensorFlow, Scikit-learn) are appropriate for the solution.</t>
+          <t>1. The use of React, Node.js, and MySQL is appropriate for the system's requirements, but the scalability of the tech stack under high load conditions needs further validation. 2. The privacy and security measures are mentioned, but more details on encryption and compliance with GDPR and HIPAA are needed.</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1. Include diagrams to illustrate the architecture and data flow. 2. Provide more details on the datasets and baselines for AI/ML models. 3. Address privacy and security concerns, especially given the sensitive nature of health data.</t>
+          <t>1. Provide more detailed information on the datasets and baselines used for training and evaluation. 2. Include a more comprehensive risk assessment and mitigation plan, particularly focusing on data privacy and user adoption challenges. 3. Consider expanding the deployment plan to include more detailed steps for scaling the system across different regions.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Angaari Paltan</t>
+          <t>BrajCoders</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\Angaari Paltan - ISHITA GOYAL.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\BrajCoders - DEEPTI YADAV.pdf</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
@@ -934,64 +934,64 @@
         <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>63.5</v>
+        <v>69</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>The team 'Angaari Paltan' presented an AI-driven internship recommendation engine aimed at matching user profiles with verified internships. The solution leverages NLP for profile analysis and a hybrid model for matching. However, the presentation lacks diagrams, making it difficult to fully assess the technical architecture and workflow. The problem framing and datasets are adequately covered, but there are significant gaps in assumptions, baselines, and metrics. The deployment plan and adoption path are mentioned but not detailed. Overall, the project shows potential but requires more concrete evidence and detailed planning.</t>
+          <t>The 'UrjaLink' project by BrajCoders aims to monitor and optimize renewable energy microgrids in rural areas using IoT technology. The system includes sensors, GPS tracking, and cloud analytics to monitor energy usage, predict maintenance needs, and provide updates via a mobile app. The architecture involves a microgrid controller, communication modules, and a cloud database, with a tech stack including C++, React, Python, Django, and more. The project is affordable and scalable, with challenges such as connectivity and power instability addressed through offline caching and backup batteries.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>No diagrams were provided, so the workflow analysis is based solely on the text description. The workflow involves data collection from verified sources, user profiling using NLP, and a recommendation engine that uses a hybrid model for matching. The deployment includes a web dashboard for ministries and organizations.</t>
+          <t>The workflow of 'UrjaLink' involves monitoring energy generation, distribution, and storage using IoT technology. The system optimizes energy usage and provides real-time updates through a mobile app, with a focus on affordability and scalability.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1. The project addresses a relevant problem in the education sector by facilitating access to internships. 2. The use of NLP for profile analysis is a strong technical choice that can enhance the personalization of recommendations.</t>
+          <t>1. The project addresses a critical need for reliable energy in rural areas, with a focus on affordability and scalability. 2. The use of IoT technology and predictive maintenance is innovative and could significantly reduce energy losses and downtime.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1. The lack of diagrams makes it difficult to assess the technical architecture and workflow. 2. There is insufficient detail on the assumptions and baselines, which are critical for evaluating the feasibility of the solution.</t>
+          <t>1. The presentation lacks detailed information on datasets and baselines, which are crucial for evaluating the system's effectiveness. 2. Privacy and security considerations are not addressed, which are important for IoT systems.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1. The hybrid model combining collaborative filtering and skill matching is a promising approach, but more details on its implementation and evaluation are needed. 2. The data quality challenges are acknowledged, but the proposed strategies for verification and feedback loops require further elaboration.</t>
+          <t>1. The technical stack is comprehensive, but the integration of various technologies like TensorFlow and Arduino needs more clarity on their specific roles. 2. The feasibility analysis mentions challenges like connectivity issues, but the solutions provided are somewhat generic.</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1. Include detailed diagrams to illustrate the architecture and workflow, which will strengthen the technical evaluation. 2. Provide more information on the metrics and evaluation plan to demonstrate how the solution's effectiveness will be measured. 3. Clarify the assumptions and baselines to provide a clearer context for the solution's development and deployment.</t>
+          <t>1. Provide more detailed information on the datasets used and the baselines for comparison. 2. Include privacy and security measures to ensure data protection and system integrity. 3. Clarify the specific roles of each technology in the tech stack to better understand the system's architecture.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hacktronics</t>
+          <t>Bug Bengers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\Animal Type Classification - DEVANG SHUKLA.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\Bug Bengers- PRAFUL KUMAR.pdf</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>6</v>
@@ -1003,48 +1003,48 @@
         <v>39</v>
       </c>
       <c r="K9" t="n">
-        <v>65.5</v>
+        <v>65</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Hacktronics presents an AI-driven solution for animal type classification in rural agriculture, leveraging low-cost hardware and AI frameworks. The project is well-framed with a clear problem statement and a strong architectural plan, but lacks detailed baselines, metrics, and privacy considerations. The diagrams support the data flow and market potential, but the text lacks comprehensive evidence for some criteria.</t>
+          <t>The Bug Bengers team presents EduChain, a system for validating academic certificates using OCR, AI, and blockchain. The project is well-framed with a clear problem statement and a strong focus on scalability and security. However, there are gaps in assumptions, baselines, and privacy compliance. The workflow diagram provides a detailed process overview, supporting the text description. The project is innovative and technically feasible, with a potential high impact on academic integrity.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>The workflow involves capturing data using a camera, processing it on-device, and transmitting it to a mobile device and cloud, supported by market sizing data for deployment scenarios.</t>
+          <t>The workflow involves certificate issuance, blockchain storage, verification request, validation engine, and result reporting. It ensures authenticity and detects tampering using blockchain for secure storage.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1. The project addresses a significant problem in rural agriculture with a clear AI-driven solution. 2. The use of low-cost hardware and AI frameworks is well-integrated into the solution, making it feasible for rural deployment.</t>
+          <t>1. The project addresses a significant issue in academic integrity with a clear and innovative solution. 2. The use of blockchain for secure storage is well-justified and enhances the system's credibility. 3. The workflow diagram is detailed and aligns well with the text description, providing a clear understanding of the process.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1. The proposal lacks detailed baselines and metrics for evaluating the system's performance. 2. Privacy and security considerations are minimally addressed, which could be a concern for data handling.</t>
+          <t>1. The assumptions and baselines are not well-defined, which could impact the project's feasibility. 2. Privacy and compliance aspects are not thoroughly addressed, especially concerning data protection laws.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1. The architecture is well-documented, but the latency and cost estimates are vague. 2. The dataset requirements are mentioned, but specifics on data collection and diversity are lacking.</t>
+          <t>1. The integration with existing systems like DigiLocker is a strong point, but the technical details of this integration are not fully explored. 2. The choice of technologies is appropriate, but the scalability of the AI and OCR components needs more evidence.</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1. Provide more detailed metrics and evaluation plans to strengthen the proposal. 2. Address privacy and security concerns more thoroughly to ensure data protection. 3. Include more detailed deployment and adoption strategies to enhance the project's feasibility.</t>
+          <t>1. Provide more detailed assumptions and baselines to strengthen the project's foundation. 2. Address privacy and compliance issues more comprehensively, particularly in relation to India's DPDP Act. 3. Include more technical details on the integration with existing systems and the scalability of AI components.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BenzeneCoder</t>
+          <t>Bytes with Bites</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\BenzeneCoder - SARTHAK TIWARI.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\Bytes with Bites - NITESH gla.pdf</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1054,10 +1054,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
@@ -1066,105 +1066,3933 @@
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>64</v>
+        <v>67.5</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>The team BenzeneCoder presents a digital mental health platform for students, focusing on accessibility and stigma reduction. The solution is technically feasible using open-source tools but lacks detailed metrics, baselines, and deployment plans. Privacy and security are acknowledged but not deeply addressed.</t>
+          <t>The team 'Bytes with Bites' presents a real-time public transport tracking system for small cities, leveraging driver smartphones instead of traditional GPS hardware. The solution is designed to be low-cost and scalable, with a focus on improving commuter experience and transport efficiency. The architecture includes a driver app for GPS data, a backend server for processing, and a passenger app for displaying live bus locations and ETAs. The system is optimized for low bandwidth and includes features like a shift-based toggle for privacy and offline caching for network issues. However, the presentation lacks detailed baselines, datasets, and security measures.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>The workflow involves developing a web-based platform with core features like AI chatbot, booking system, and resource hub. The process includes defining features, setting up backend and frontend, integrating components, and testing.</t>
+          <t>The workflow involves a driver app for route selection and location sharing, a backend server for processing GPS data, and a passenger app for displaying live bus locations and ETAs. The process is designed to be low-cost and scalable, with a focus on improving commuter experience and transport efficiency.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1. The project addresses a significant issue in student mental health with a proactive approach. 2. The use of open-source tools makes the solution accessible and cost-effective.</t>
+          <t>1. The solution is innovative by using driver smartphones instead of GPS hardware, reducing costs significantly (slide 2). 2. The system is designed to be scalable and optimized for low bandwidth, making it suitable for small cities (slide 3).</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1. The presentation lacks detailed diagrams to support the technical architecture and workflow. 2. Metrics and evaluation plans are not clearly defined, making it difficult to assess the project's success.</t>
+          <t>1. The presentation lacks detailed information on baselines and datasets, which are crucial for evaluating the system's effectiveness (slide 4). 2. Security measures are not adequately addressed, which is a significant concern for a public transport system (slide 4).</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1. The integration of AI chatbot with Rasa is a strong point, but the limitations and potential inaccuracies of AI need more robust mitigation strategies. 2. The security measures for handling sensitive data are mentioned but not detailed.</t>
+          <t>1. The use of cloud infrastructure and GeoSpatial databases is a strong point for scalability (slide 3). 2. The system's reliance on driver smartphones may pose challenges in terms of device compatibility and battery usage (slide 4).</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1. Include detailed diagrams of the system architecture and data flow to strengthen the technical presentation. 2. Develop a clear evaluation plan with specific metrics to measure the impact and success of the platform. 3. Enhance the privacy and security sections with more specific strategies and technologies.</t>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan (slide 4). 2. Address security concerns by outlining specific measures to protect user data and system integrity (slide 4). 3. Consider potential challenges with driver smartphone usage and propose solutions to mitigate them (slide 4).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Binary Brains</t>
+          <t>CodeDemons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\hackathon-evaluation\hackathon-evaluation\project_context\ppt\Binary Brains - Milan Sharma.pdf</t>
+          <t>D:\Openai Hackathon Evaluation\ppt\CODEDEMONS - KAJAL CHAUDHARY.pdf</t>
         </is>
       </c>
       <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>The ADIYOGI project is a digital mental health support system for students in higher education, integrating AI, peer support, and professional help. It is designed to be scalable and stigma-free, deployable in semi-urban and rural colleges. The project uses technologies like React.js, Django, and AI/NLP tools to provide personalized support and real-time insights while ensuring data privacy. The data flow diagram provides a clear user journey from registration to receiving support, with backend processes for data storage and analytics.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>The workflow of the ADIYOGI system is well-structured, starting from student registration to receiving mental health support through AI chatbots, peer support, and counselor sessions. The backend processes ensure data storage and analytics, providing a comprehensive support system.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1. The project addresses a critical issue of mental health in higher education with a comprehensive approach. 2. The integration of AI, peer support, and professional help is innovative and tailored to the Indian context.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed baselines and datasets, which are crucial for evaluating the effectiveness of the solution. 2. The assumptions made are not clearly outlined, which could affect the project's feasibility.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1. The use of open-source technologies like React.js and Django is commendable, but the scalability and performance under high load need further exploration. 2. The security measures are mentioned, but more details on encryption and data protection are needed.</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Clearly outline the assumptions and how they impact the project's implementation. 3. Explore additional security measures to ensure data privacy and compliance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CODEX SIH - SUMIT BHARDWAJ.pdf</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>48</v>
+      </c>
+      <c r="K12" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>The CODEX team presents an AI-powered train traffic control system aimed at maximizing section throughput and minimizing delays. The system integrates real-time digital twins with AI/ML optimization for predictive analytics and conflict resolution. The technical approach includes data ingestion, railway network modeling, AI optimization, and integration with existing systems. The feasibility and viability are supported by technical, operational, and financial strategies, while the impact and benefits highlight social, economic, and environmental advantages. The architecture diagram provides a clear view of the system's components and workflow, supporting the text's claims.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>The workflow involves data ingestion and modeling, followed by AI optimization and simulation for decision support. The system integrates with existing railway systems for real-time monitoring and control.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1. The integration of real-time digital twins with AI/ML optimization is innovative and well-articulated. 2. The architecture diagram provides a clear and comprehensive view of the system's components and workflow.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and assumptions, which are critical for evaluating the system's performance. 2. The financial aspects, while mentioned, are not deeply explored, leaving questions about cost-effectiveness.</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1. The use of proven tools and technologies like ETL pipelines, ML libraries, and simulators is commendable. 2. The decision support interface with XAI-driven recommendations is a strong technical feature.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and assumptions to strengthen the problem framing. 2. Include more specific financial metrics and cost estimates to better assess the project's viability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Caffeine Coders</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Caffeine Coders - JATIN KUMAR.pdf</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>64</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>The project by Caffeine Coders presents a Smart Tourist Safety Monitoring and Rapid Response System leveraging AI, Geo-Fencing, and Blockchain-based Digital ID. The system includes a tourist app with SOS and geo-fencing features, a blockchain digital ID for verification, and an AI anomaly detector. It aims to enhance tourist safety by speeding up emergency responses, preventing incidents, and assisting law enforcement with real-time data. The use of AI for safety predictions and blockchain for secure identities is highlighted, with integration into mobile apps and dashboards for authorities.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>The workflow involves tourists using an app for safety alerts and authorities accessing a dashboard for real-time monitoring. The system integrates AI for anomaly detection, blockchain for secure ID verification, and geo-fencing for location-based alerts.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1. The integration of AI, blockchain, and geo-fencing is innovative and addresses a critical need in tourist safety. 2. The use of well-established technologies enhances the feasibility of the project.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. The deployment plan and cost estimates are not sufficiently detailed.</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1. The choice of Hyperledger Fabric for blockchain is appropriate for secure ID management. 2. The use of regression and neural networks for AI/ML is suitable for anomaly detection and predictive alerts.</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Include a comprehensive deployment plan with cost and latency estimates to enhance the project's feasibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Casual X Coders</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Caual_X_Coders - PAVITRA MALHOTRA.pdf</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
         <v>5</v>
       </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Binary Brains presents a digital mental health platform for students, leveraging AI for stress detection and personalized support. The proposal is strong in problem framing and architecture, but lacks detailed baselines and dataset information. Privacy and scalability are well-addressed, but metrics and evaluation plans need more clarity.</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>No diagrams or workflows were provided in the deck. The images were primarily logos and decorative elements.</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1. The problem framing is well-articulated, focusing on a critical issue in student mental health. 2. The proposed solution is innovative, combining AI with human counseling to provide comprehensive support.</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1. The deck lacks detailed information on datasets and baselines, which are crucial for evaluating the AI model's effectiveness. 2. Metrics and evaluation plans are not clearly defined, making it difficult to assess the project's success criteria.</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1. The tech stack is well-chosen for scalability and real-time interaction, but more details on latency and cost estimates would strengthen the proposal. 2. Security measures are mentioned, but specifics on how data privacy will be maintained are needed.</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1. Include detailed baselines and dataset information to strengthen the evidence of feasibility. 2. Define clear metrics and evaluation plans to track the project's impact and success. 3. Provide a more detailed deployment plan, including potential challenges and mitigation strategies.</t>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>The Smart Attendance System by Casual X Coders is a promising solution for automating student attendance using face recognition and cloud technology. The system is designed to save time, reduce errors, and support digital transformation in education. It features a dual validation approach and integrates with existing ERP/LMS platforms. The technical approach is well-documented with a flowchart, but lacks detailed baselines, datasets, and cost estimates. The team has identified potential challenges and proposed strategies to mitigate them, showing a good understanding of risks and scalability.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>The workflow of the Smart Attendance System involves faculty creating a lecture, students entering the classroom, face validation for attendance marking, calculation of stay duration, storage of attendance records, and report generation. The system categorizes attendance as present, partial, or absent, and uses technologies like React, Node.js, and AWS.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1. The dual validation approach for entry and exit is innovative and ensures fairness. 2. The system's integration with existing ERP/LMS platforms is a strong point for adoption.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. Cost estimates and latency considerations are not addressed.</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1. The use of React, Node.js, and AWS is appropriate for scalability, but the presentation should include more details on the architecture and deployment strategy. 2. The flowchart provides a clear overview of the process but could benefit from more technical depth.</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1. Include detailed baselines and datasets to strengthen the evaluation plan. 2. Provide cost estimates and latency considerations to better assess the system's feasibility. 3. Expand on the deployment plan with specific steps and timelines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Code Redz</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Code Redz - AYUSH CHAUDHARY.pdf</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>41</v>
+      </c>
+      <c r="K15" t="n">
+        <v>69</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>The AI-powered internship recommendation system by Code Redz aims to assist first-generation learners by providing personalized internship suggestions. The system uses a lightweight AI approach with rule-based filtering and simple ML models, integrated into the PM Internship Scheme portal. The technical stack includes React for the frontend, Flask for the backend, and MySQL/PostgreSQL for data storage. The workflow involves capturing candidate inputs, processing them through a recommendation engine, and displaying personalized internship suggestions. The project addresses challenges like data quality and user adoption, with strategies for overcoming these issues.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>The workflow diagram illustrates the process from candidate input on the portal to displaying personalized internship recommendations. It includes frontend data capture, backend API requests, recommendation logic, and database interactions.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant problem by focusing on first-generation learners and digitally less-exposed candidates. 2. The use of a lightweight AI approach ensures accessibility and scalability, making it suitable for low-end devices.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and metrics for evaluating the system's effectiveness. 2. Privacy and security considerations are minimally addressed, which could be a concern for user data protection.</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1. The use of React and Flask is appropriate for a lightweight application, but the integration of more advanced ML models could enhance recommendation accuracy. 2. The reliance on rule-based filtering may limit the system's adaptability to diverse candidate profiles.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1. Consider incorporating more comprehensive privacy and security measures to protect user data. 2. Develop a more detailed evaluation plan with clear metrics and baselines to assess the system's performance. 3. Explore the potential for more advanced ML models to improve recommendation accuracy and adaptability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CodeBusters</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CodeBusters - SUNIL SINGH.pdf</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>40</v>
+      </c>
+      <c r="K16" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>InstaVerify is a decentralized document verification system leveraging blockchain and IPFS for secure validation of academic records. The system uses Ethereum for storing document hashes and provides OTP-based authentication for access. It aims to reduce fraud and improve efficiency in document verification processes.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>The workflow involves admins registering institutes, uploading student credentials, and storing document hashes on the Ethereum blockchain. Students and verifiers can access and verify documents using unique IDs and OTP-based authentication.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1. The use of blockchain and IPFS for document verification is innovative and leverages proven technologies. 2. The system's focus on reducing fraud and improving efficiency is well-aligned with current needs in academic verification.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. The deployment plan and adoption path are not thoroughly addressed, which could hinder real-world implementation.</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1. The technical approach is sound, using Ethereum and IPFS, but the scalability claims need more concrete evidence. 2. The latency and cost estimates are mentioned but not detailed, which could impact feasibility.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Include a more comprehensive deployment plan and adoption strategy to ensure successful implementation. 3. Consider adding more detailed latency and cost analysis to support scalability claims.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CodeCrafters</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CodeCrafters- NAMAN AGRAWAL.pdf</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41</v>
+      </c>
+      <c r="K17" t="n">
+        <v>69</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>The project aims to develop a real-time public transport tracking system for small cities, focusing on a centralized web app platform. It integrates multimodal transport solutions optimized for low-bandwidth environments and employs a least-cost algorithm. The technical stack includes Django REST Framework, PostgreSQL with PostGIS, and Flutter for mobile app development. The solution is designed to improve commuter experience, support local economies, and reduce environmental impact. The diagram on slide 4 provides a critical flowchart of the workflow, highlighting backend and frontend development, multimodal routing, and device optimization.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>The workflow involves backend and frontend development, focusing on multimodal routing, frontend with PostGIS, and device optimization. The diagram on slide 4 illustrates decision points and optimization strategies, providing a clear view of the technical approach.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant market need by providing a centralized platform for public transport tracking in small cities. 2. The use of a least-cost algorithm tailored for small-city commuters is innovative and unique.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed baselines and datasets, which are crucial for evaluating the effectiveness of the solution. 2. Privacy and compliance considerations are minimally addressed, which could be a significant oversight.</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1. The technical stack is robust, with Django REST Framework and PostGIS providing a solid foundation for scalability and geographical data handling. 2. The diagram on slide 4 effectively communicates the workflow and technical approach.</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed information on datasets and baselines to strengthen the evaluation plan. 2. Address privacy and compliance issues more thoroughly to ensure user trust and regulatory adherence. 3. Consider including latency and cost estimates to provide a clearer picture of the solution's feasibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CodeIntellix</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CodeIntelliX - RACHIT SAXENA.pdf</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>39</v>
+      </c>
+      <c r="K18" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>The CodeIntellix team proposes a digital guidance platform for personalized career and education advice, leveraging AI/ML technologies and a robust backend infrastructure. The platform aims to reduce dropout rates and promote government colleges. While the technical approach is well-defined, there are gaps in baseline establishment, dataset specifics, and cost estimates. The feasibility analysis is comprehensive, but the impact metrics are not clearly quantified.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>The workflow involves a digital platform that integrates AI/ML for personalized recommendations, a backend infrastructure for data management, and a user interface for interaction. The platform is designed to be accessible both online and offline, catering to students in rural areas.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1. The platform's focus on reducing dropout rates and promoting government colleges is commendable. 2. The use of AI/ML for personalized recommendations is a strong technical approach.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks specific baseline data and metrics to evaluate the platform's success. 2. Cost estimates and latency considerations are not addressed in detail.</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-structured, but more details on the integration of AI/ML models with the backend services would be beneficial. 2. The security measures need further elaboration, especially concerning data encryption and compliance.</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1. Include more detailed metrics and KPIs to measure the platform's impact. 2. Provide a clearer deployment plan with cost and latency estimates. 3. Enhance the privacy and security sections with specific compliance strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CodeSentry</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CodeSentry- VATSAL AGARWAL.pdf</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>47</v>
+      </c>
+      <c r="K19" t="n">
+        <v>79</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CodeSentry's KrishiSaarthi project presents a comprehensive AI-based crop recommendation system aimed at empowering farmers with disease detection and advisory services. The system leverages image and voice inputs, processed through Firebase and Whisper API, and utilizes Keras and TensorFlow for AI-powered detection. Recommendations are delivered in vernacular languages using FastAPI and AWS for deployment. The project is strong in its architecture and scalability, with a clear deployment plan and adoption path. However, it has notable gaps in assumptions, baselines, and privacy/compliance considerations.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>The workflow involves capturing inputs via images and voice, preprocessing data using Firebase and Whisper API, detecting plant diseases with a CNN model, and generating localized advice through a fine-tuned LLM. The system integrates weather and soil data for contextual insights and delivers outputs in text or speech. The architecture is designed for scalability and ease of deployment on AWS.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1. The project effectively addresses the problem of crop disease detection with a farmer-centric design, supporting multiple languages and low-tech accessibility. 2. The use of pre-trained models and cloud infrastructure ensures scalability and reliability.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1. The assumptions and baselines are not clearly defined, which could impact the evaluation of the system's effectiveness. 2. Privacy and compliance considerations are not thoroughly addressed, which is critical for handling sensitive data.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1. The integration of weather and soil data for contextual insights is a strong technical feature, enhancing the relevance of recommendations. 2. The use of FastAPI and AWS for deployment is a robust choice for scalability.</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1. Clearly define assumptions and baselines to strengthen the evaluation plan. 2. Address privacy and compliance issues to ensure data security and user trust. 3. Consider additional validation methods to increase farmer trust in AI recommendations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Codeblooded</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Codeblooded - Shivansh Tiwari.pdf</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>40</v>
+      </c>
+      <c r="K20" t="n">
+        <v>67</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>The project by Team Codeblooded for the Smart India Hackathon 2025 focuses on waste management using AI-driven technologies. The solution includes citizen engagement through games, AI-driven waste monitoring, and a city ranking system. The technical architecture is robust, utilizing React.js, Node.js, and TensorFlow/PyTorch. While the project shows strong potential, it lacks detailed baselines, cost estimates, and a comprehensive deployment plan.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>The workflow involves a technical architecture that integrates frontend and backend technologies with AI/ML capabilities to monitor waste and engage citizens. The system aims to provide data-driven insights to governments and incentivize citizen participation.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant environmental issue with a comprehensive approach. 2. The use of AI and gamification to engage citizens is innovative and could drive high participation.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and cost estimates, which are crucial for evaluating feasibility. 2. The deployment plan is not well-defined, making it difficult to assess the project's readiness for implementation.</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1. The integration of Aadhaar/DigiLocker APIs for verified login is a strong point, ensuring secure access. 2. The use of TensorFlow/PyTorch for AI/ML tasks is appropriate, but more details on model training and evaluation are needed.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1. Provide detailed cost estimates and a clear deployment plan to strengthen the proposal. 2. Include more information on the datasets used and how they will be processed and validated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coding Pirates</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CodingPirates - YASH KASAUDHAN.pdf</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>39</v>
+      </c>
+      <c r="K21" t="n">
+        <v>65</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>The project by Coding Pirates aims to digitize and showcase the monasteries of Sikkim through an immersive exploration engine, digital archive, and smart travel app. The architecture is well-documented with a critical diagram showing a robust backend infrastructure. However, there are gaps in baselines, latency/cost estimates, and security considerations. The project addresses challenges like limited internet access and the scale of digitization through phased rollouts and offline capabilities.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>The workflow involves content ingestion, processing, and user interaction through a backend infrastructure utilizing React, Node.js, and PostgreSQL. The system architecture supports AI/ML services for image recognition and NLP search, addressing challenges like limited internet access through offline capabilities.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1. The project has a clear and impactful goal of preserving cultural heritage and enhancing tourism. 2. The architecture is well-documented, showing a comprehensive backend infrastructure. 3. The phased rollout and offline capabilities are strong solutions to the challenges identified.</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and latency/cost estimates, which are crucial for assessing feasibility. 2. Security considerations are minimally addressed, which could be a significant risk.</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1. The use of mature technologies like React and Node.js is a strong point, but the integration of AI/ML services could be elaborated further. 2. The diagram provides a good overview of the architecture but lacks details on data flow and security measures.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and cost estimates to strengthen the feasibility assessment. 2. Enhance the security section with specific measures and protocols. 3. Consider adding more detailed metrics and evaluation plans to track project success.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ctrl + Elite</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Ctrl+Elite - SUHANI SHARMA.pdf</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>40</v>
+      </c>
+      <c r="K22" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>The project proposes an AR-based platform for exploring India's cultural heritage through 3D models and virtual tours. It uses React.js, Node.js, and various cloud services. The flowchart on slide 7 provides a clear depiction of user-side actions and backend processes, supporting the technical feasibility of the project. However, there are notable gaps in baselines, metrics, privacy, and security considerations.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>The workflow involves users accessing the website, selecting monuments, and choosing interaction modes. The backend retrieves assets, generates AI narration, and updates AR leaderboards, as depicted in the flowchart on slide 7.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1. The project offers a unique approach to cultural heritage preservation using AR technology, which can significantly boost tourism and education. 2. The use of multilingual narratives and gamified learning enhances user engagement and accessibility.</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and metrics for evaluating success. 2. Privacy and security considerations are minimally addressed, which could be a concern for user data protection.</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1. The technical stack is well-chosen, with React.js and Node.js providing a solid foundation for web development. 2. The use of cloud services like AWS and Google Cloud ensures scalability, but cost estimates are not detailed.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed metrics and KPIs to measure the project's impact and success. 2. Address privacy and security concerns more thoroughly, possibly by including encryption and data protection strategies. 3. Consider adding a detailed deployment plan with timelines and resource allocation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cyber Knights</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\CyberKnights - AYUSH AGRAWAL.pdf</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>41</v>
+      </c>
+      <c r="K23" t="n">
+        <v>69</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>The Cyber Knights team presents an automated attendance system for rural schools, leveraging an Android app with offline capabilities and multi-mode data capture (RFID, QR, face recognition). The system aims to replace manual registers, ensuring reliable data capture and timely reporting. The technical approach includes a robust backend with REST APIs, PostgreSQL, and Redis, supporting offline-first operations. While the solution is innovative and addresses key challenges, it lacks detailed baselines and dataset information, and the evaluation plan is not fully fleshed out.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>The workflow for the automated attendance system involves capturing student IDs using RFID, QR, or face recognition through an Android app. The app operates offline and queues data for synchronization when a network is available. The backend processes include REST APIs, PostgreSQL, and Redis for data handling. The system ensures data validation and provides dashboards for reporting.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1. The solution is well-suited for rural areas with limited connectivity, thanks to its offline-first approach. 2. The multi-mode capture system (RFID, QR, face recognition) offers flexibility and reduces hardware dependency.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed information on baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. The evaluation plan is not comprehensive, with limited metrics and KPIs discussed.</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1. The use of Redis for batched sync and PostgreSQL for data handling is a strong choice for scalability. 2. The offline queue with exponential backoff is a robust method for handling network interruptions.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and dataset information to strengthen the evaluation plan. 2. Consider expanding the metrics and KPIs to include more specific performance indicators.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DEV10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\DEV10 (SIH-25) final - AYUSH AGNIHOTRI.pdf</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>75</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>The CropGuru project by DEV10 aims to enhance crop yield prediction and optimization using AI-driven technologies. The system integrates AI chatbots, ML models, satellite imaging, and image analysis to provide personalized recommendations to farmers. The project demonstrates strong problem framing and architecture scalability but lacks detailed baselines and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>The workflow involves collecting data from various sources, processing it through AI/ML models, and delivering personalized advice to farmers. The system is designed to improve resource use, reduce costs, and increase yield, with scalability to support millions of farmers globally.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1. The project effectively integrates multiple technologies to address a critical need in agriculture. 2. The scalability of the system to support millions of farmers is well-considered.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and privacy considerations. 2. There is insufficient information on latency and cost estimates.</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1. The use of existing APIs like OpenAI and Google Earth Engine is a strong point, but the reliance on external data sources could pose challenges. 2. The system's ability to handle diverse regional data needs further validation.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and privacy compliance measures. 2. Include latency and cost estimates to strengthen the technical feasibility. 3. Consider additional security measures to protect sensitive data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DeepSeekers</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\DeepSeekers.pptx - Urvashi Agrawal.pdf</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>40</v>
+      </c>
+      <c r="K25" t="n">
+        <v>67</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>The DeepSeekers team presents 'FloatChat', an AI-powered conversational interface for ARGO ocean data discovery and visualization. The solution aims to simplify data access and visualization for users without technical expertise. The architecture is well-documented, with a clear workflow from user interaction to data visualization. However, there are gaps in privacy, security, and cost estimates, and the baselines are minimally covered.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>The workflow involves a user-friendly web interface that allows users to query oceanographic data through a conversational AI. The frontend processes the query, which is then interpreted by an AI layer in the backend. Data is retrieved from a database, processed, and visualized for the user.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1. The project addresses a clear need by simplifying access to complex oceanographic data, making it accessible to non-experts. 2. The architecture is well-documented, with a clear workflow from user interaction to data visualization, as shown in the critical diagrams.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed privacy and security considerations, which are critical for handling data. 2. Baselines and cost estimates are minimally covered, which could impact the project's feasibility.</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1. The use of JavaScript and Chart.js is appropriate for rapid visualization, but the handling of large datasets in real-time remains a challenge. 2. The phased approach for development is a sound strategy, but more details on the integration with live ARGO API are needed.</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1. Enhance the privacy and security sections to address data handling concerns. 2. Provide more detailed cost estimates and baselines to strengthen the feasibility analysis. 3. Consider expanding the deployment plan to include more detailed steps for integration with live data sources.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>H.A.S.H.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\H.A.S.H. - HARSHIT BHARDWAJ.pdf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>41</v>
+      </c>
+      <c r="K26" t="n">
+        <v>69</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>The team H.A.S.H. proposes a cloud-based document management system for Kochi Metro Rail Limited, leveraging the MERN stack and AI/NLP for intelligent document handling. The solution aims to eliminate information silos, preserve knowledge, and support bilingual capabilities. The architecture is well-documented, but there are gaps in baselines, latency/cost estimates, and privacy/compliance details.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>The workflow involves a cloud-based platform using the MERN stack, integrating AI/NLP for document management. The architecture includes a React UI, Node.js backend, MongoDB database, and audit governance for compliance.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1. The solution effectively addresses the problem of document overload with a comprehensive architecture (slide 7). 2. The use of AI/NLP for bilingual support is innovative and enhances accessibility.</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and latency/cost estimates, which are crucial for evaluating feasibility. 2. Privacy and compliance aspects are not thoroughly addressed, which could be a significant oversight.</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1. The integration of AI/NLP models like BERT and LASER is technically sound, but the handling of Malayalam language needs more specificity. 2. The architecture is robust, but scalability considerations are not fully explored.</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and cost estimates to strengthen the proposal. 2. Enhance the privacy and compliance section with specific measures and policies. 3. Consider scalability challenges and solutions in more detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HEXACODERS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\HEXACODERS - SHREY RAWAT.pdf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>37</v>
+      </c>
+      <c r="K27" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>The HEXACODERS team presents a Smart Curriculum Activity &amp; Attendance App aimed at enhancing educational efficiency through automation and personalization. The app features an automated attendance system using face recognition, an AI-powered routine generator, and a unified student dashboard. The technical approach includes a camera module, face recognition engine, and database system for managing attendance and task scheduling. The solution is designed to be scalable and cost-effective, leveraging existing technologies to minimize infrastructure requirements.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>The workflow involves capturing student faces using a camera module, processing them through a face recognition engine, and storing the data in a database system. This data is used to manage attendance and generate personalized schedules and task recommendations.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1. The app's focus on automation and personalization is well-aligned with modern educational needs. 2. The use of existing technologies like face recognition and cloud hosting makes the solution cost-effective and scalable.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed information on privacy and compliance measures, which are critical for handling student data. 2. The risk and mitigation strategies are not well-defined, leaving potential implementation challenges unaddressed.</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1. The technical architecture is sound, but more details on the face recognition engine's accuracy and performance metrics would strengthen the proposal. 2. The scalability claims are promising, but specific examples or case studies would provide better evidence.</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1. Include a detailed privacy and compliance plan to address data protection concerns. 2. Develop a comprehensive risk management strategy to identify and mitigate potential challenges during deployment. 3. Provide more concrete examples of successful scalability to support the claims made in the presentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HackOps.exe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\HackOPS.exe- HARSH SINGH.pdf</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>39</v>
+      </c>
+      <c r="K28" t="n">
+        <v>65</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>The project by HackOps.exe aims to develop a digital mental health support system for students in higher education. It features a multi-layered architecture with anonymous login, AI-guided chatbots, and a risk detection layer. The system is supported by a scalable cloud infrastructure. The deck provides a strong problem framing and architecture but lacks detailed baselines and cost estimates. Privacy and security are well-addressed, but the deployment plan and adoption path need more clarity.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>The workflow involves requirement gathering, system design, data integration, development, testing, deployment, and ongoing monitoring. The architecture diagram highlights a layered approach with technologies like Node.js, MongoDB, and Python ML.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1. The project addresses a critical need for mental health support in higher education, with a well-defined problem statement. 2. The architecture is robust and scalable, utilizing modern technologies like AI and cloud infrastructure.</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1. The deck lacks detailed baselines and cost estimates, which are crucial for evaluating feasibility. 2. The deployment plan and adoption path are not clearly outlined, which could hinder implementation.</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1. The use of AI-guided chatbots and cloud scalability is technically sound, but more details on latency and cost management are needed. 2. Privacy and security measures are well-considered, but the integration of these features into the overall system needs more elaboration.</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and cost estimates to strengthen the feasibility analysis. 2. Clarify the deployment plan and adoption path to ensure smooth implementation and user engagement. 3. Consider adding more detailed risk mitigation strategies to address potential challenges during deployment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HackSmith</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\HackSmith(SIH) PPT - RAM LAL.pdf</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>43</v>
+      </c>
+      <c r="K29" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>The project 'GeoRain' by HackSmith aims to develop a mobile/web application for assessing rooftop rainwater harvesting potential. It integrates GIS rooftop mapping with local rainfall data to calculate harvest capacity, tank size, and recharge structures. The technical stack includes React.js, Node.js, and MongoDB, with data sourced from IMD and Google Earth. The workflow involves user input of rooftop details, fetching rainfall data, computation of water harvesting potential, and generating geo-tagged reports. The project is innovative in combining GIS mapping with rainfall data, providing on-spot results without manual surveys. However, there are gaps in assumptions, baselines, and detailed risk management.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>The workflow of the application starts with the user opening the app and entering rooftop details. It then fetches local rainfall data and proceeds through a computation module to calculate water harvesting potential. The process ends with generating a geo-tagged report.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1. The integration of GIS rooftop mapping with local rainfall data is innovative and eliminates the need for manual surveys. 2. The application has the potential to significantly impact urban planning and water conservation efforts.</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed assumptions and baselines, which are crucial for validating the approach. 2. There is minimal coverage of privacy, compliance, and security aspects, which are important for user trust and data protection.</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1. The technical stack is well-chosen for scalability, but the optional use of MongoDB should be clarified in terms of necessity and benefits. 2. The latency and cost estimates are not addressed, which could impact the feasibility of large-scale deployment.</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1. Provide a more detailed risk management plan, including potential technical and operational risks. 2. Enhance the deployment plan with specific steps and timelines to ensure a smooth rollout. 3. Consider adding more detailed metrics and KPIs to evaluate the application's performance and impact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hackstreet Boys</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Hackstreet Boys - SHRIKANT SHARMA.pdf</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>41</v>
+      </c>
+      <c r="K30" t="n">
+        <v>69</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>The Hackstreet Boys propose a mobile/web application for assessing rooftop rainwater harvesting and artificial recharge systems. The project is unique in its citizen-focused approach and aims to bridge the gap between citizens and policymakers. The technical stack includes Flutter and Node.js, with a focus on low-cost deployment. The feasibility analysis highlights low development costs and high impact, but challenges such as data accuracy and user awareness are noted.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>The workflow involves user onboarding, data input, system recommendations, and real-time monitoring. The critical diagram on slide 4 outlines the user flow from onboarding to real-time monitoring, emphasizing the step-by-step process for assessing and implementing rainwater harvesting systems.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1. The project is innovative in its approach to engage citizens and policymakers in water conservation efforts. 2. The use of a low-cost tech stack makes the solution scalable and feasible for wide deployment.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed metrics and KPIs for evaluating success. 2. Privacy and security considerations are not addressed in the proposal.</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1. The integration of IoT is mentioned as a challenge but lacks a clear plan for implementation. 2. The proposal could benefit from more detailed latency and cost estimates.</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1. Consider developing a more comprehensive evaluation plan with clear metrics and KPIs. 2. Address privacy and security concerns to ensure user trust and compliance with regulations. 3. Provide a detailed plan for IoT integration to enhance system capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rural Health Innovators</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Healthcare Access in Rural India - Sumit Dinday.pdf</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>40</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>The presentation outlines a mobile app designed to improve healthcare access in rural India by addressing doctor shortages and geographical barriers. It offers AI-driven symptom analysis, telemedicine services, and GPS for locating nearby hospitals. The app supports multiple languages and offline functionality to enhance accessibility. It integrates with government schemes for data collection and community health education. Future plans include expanding to more villages, integrating wearable technology, and centralizing health records. The diagrams provide a clear view of the app's features and future scalability plans, but there are gaps in baselines, datasets, and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>The workflow involves using AI for symptom analysis, providing first aid suggestions, enabling telemedicine, and using GPS for hospital location. It supports multiple languages and offline functionality, integrates with government schemes, and plans for future scalability.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1. The app addresses a critical need in rural healthcare by leveraging AI and telemedicine, which is innovative and impactful. 2. The integration with government schemes and support for local languages enhances the app's potential for widespread adoption.</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the app's effectiveness. 2. Privacy and security considerations are not adequately addressed, which are essential for handling sensitive health data.</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1. The architecture diagram (Image 5) clearly outlines the app's core features, but more details on the backend infrastructure and data flow would strengthen the technical feasibility. 2. The scalability plans (Image 12) are promising, but require more concrete steps and timelines.</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1. Include more detailed baselines and datasets to provide a clearer picture of the app's starting point and data sources. 2. Address privacy and security concerns by outlining specific measures and compliance with relevant regulations. 3. Provide a more detailed deployment plan with timelines and resource requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HexaHackers</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\HexaHackers[1] - PRIYANSH GARG.pdf</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>34</v>
+      </c>
+      <c r="K32" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>HexaHackers propose an Automated Attendance System for Rural Schools using face recognition, ID, or QR codes. The system is designed to work offline and online, with local storage and cloud sync for data analysis. It aims to save teacher time, reduce errors, and improve student attendance through real-time monitoring and alerts. The solution is low-cost, scalable, and user-friendly, with a focus on rural areas. However, the deck lacks detailed baselines, datasets, and privacy compliance measures.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>The workflow for the Automated Attendance System involves user login and identification using face recognition, ID, or QR codes. Valid users proceed to class selection, while invalid users are flagged. Attendance is processed and reported, with data backed up locally and synced to the cloud. Notifications are sent to parents for absentees, and reports are generated for teachers and parents.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1. The system is designed to work both offline and online, which is crucial for rural areas with unstable internet connectivity. 2. The use of multi-modal options (Face/ID/QR) for attendance is innovative and increases flexibility.</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1. The deck lacks detailed information on baselines and datasets, which are critical for evaluating the system's effectiveness. 2. Privacy and compliance measures are not adequately addressed, which is a significant concern for systems handling personal data.</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1. The use of technologies like Python, JavaScript, OpenCV, and Firebase is appropriate for the proposed solution. 2. However, the deck does not provide detailed latency or cost estimates, which are important for assessing the system's feasibility.</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1. Include detailed baselines and datasets to strengthen the evaluation plan. 2. Address privacy and compliance measures to ensure data security and user trust. 3. Provide more detailed latency and cost estimates to better assess the system's feasibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Igniters</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Igniters - MANISH SINGH.pdf</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>41</v>
+      </c>
+      <c r="K33" t="n">
+        <v>69</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>The 'Madadgaar' project is a disaster preparedness and response education system for schools and colleges, utilizing a third-person gaming simulator and real-time alerts. The technical architecture includes a server, Firebase, and AI-driven prediction, supported by a tech stack of Flutter, React, and Node.js. The project aims to provide a scalable, cloud-based solution with multilingual content and offline-first alerts. While the problem framing and architecture are strong, there are notable gaps in baselines and security details.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>The workflow of 'Madadgaar' involves a comprehensive disaster preparedness system that integrates gaming simulations and real-time alerts. The architecture is designed to be scalable and accessible, with a focus on engaging students through personalized learning experiences.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1. The project addresses a critical need for disaster preparedness in educational institutions, aligning with national safety guidelines. 2. The use of a gaming simulator to engage students is innovative and likely to enhance learning retention.</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and security measures, which are crucial for evaluating the system's effectiveness and safety. 2. The assumptions and datasets used for AI-driven predictions are not clearly defined.</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-designed with a modern tech stack, but more information on latency and cost estimates would strengthen the technical feasibility. 2. The integration of geospatial APIs for real-time alerts is a strong point, but the specifics of data handling and privacy compliance need more clarity.</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and security protocols to enhance the credibility of the solution. 2. Clarify the datasets and assumptions used for AI predictions to ensure transparency and reliability. 3. Consider expanding on the deployment plan to include more specifics on scaling and adoption strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Infinite_loopers</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Infinite_loopers - AMIT RAJ.pdf</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>41</v>
+      </c>
+      <c r="K34" t="n">
+        <v>69</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>The GrieveVeda platform by Infinite_loopers is a crowdsourced civic issue reporting system that leverages AI for prioritization and duplicate management. It ensures safe and anonymous reporting with a client-side app flow that includes face ID signup, complaint tracking, and user feedback. The system is designed to escalate issues from citizen actions to higher authorities efficiently. The architecture is robust, but there are gaps in baselines, latency/cost estimates, and a detailed evaluation plan.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>The workflow of GrieveVeda involves a structured process for reporting civic issues, utilizing AI for prioritization and duplicate management. The system ensures anonymity while maintaining accountability through face ID verification. The user flow is designed to escalate unresolved issues to higher authorities, ensuring efficient resolution.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1. The platform's use of AI for prioritization and duplicate management is innovative and addresses key pain points in civic issue reporting. 2. The architecture is well-designed, ensuring scalability and integration readiness across different states.</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and latency/cost estimates, which are crucial for evaluating the system's feasibility. 2. The evaluation plan is not clearly defined, making it difficult to assess the effectiveness of the solution.</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1. The use of face ID for signup is a strong security feature, but the proposal should address potential privacy concerns more comprehensively. 2. The integration with government systems may face challenges due to policy approvals and coordination, which needs more detailed planning.</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1. Provide a more detailed evaluation plan with specific metrics and KPIs to measure success. 2. Include a cost analysis to better understand the economic feasibility of the solution. 3. Consider additional privacy measures to address potential concerns with face ID verification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Innovista</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Innovista - KAVISHA KUSHWAH.pdf</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>41</v>
+      </c>
+      <c r="K35" t="n">
+        <v>69</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>The project proposes an AI-powered Ayurvedic personal dietitian platform, integrating modern nutrition with Ayurveda. It features a chatbot for health surveys and personalized diet plans, with a technical architecture using React.js, Node.js, and MongoDB. The platform includes workflows for managing patient data and aims to offer doctor consultations and secure data management. While the architecture is well-defined, there are gaps in baselines, datasets, and cost estimates.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>The workflow involves a chatbot-based system that conducts health surveys and generates personalized diet plans. The architecture uses React.js for the frontend, Node.js for the backend, and MongoDB for the database, with APIs for authentication and notifications. The methodology includes user and admin workflows for managing patient data and diet plans.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1. The integration of modern nutrition with Ayurveda is innovative and unique. 2. The technical architecture is well-defined, using popular technologies like React.js and Node.js.</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the platform's effectiveness. 2. Cost and latency estimates are not addressed, which could impact scalability.</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1. The use of MongoDB with encryption for secure data storage is a strong point. 2. The choice of React.js and Node.js is appropriate for building scalable web applications.</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Include cost and latency estimates to better assess the platform's scalability and feasibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LLMinati</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\LLMinati - DEVANG MITTAL.pdf</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>40</v>
+      </c>
+      <c r="K36" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>The EduFlex project is an AI-driven adaptive smart timetable ecosystem designed to optimize class scheduling. It uses AI and machine learning for conflict prediction and a multi-agent system for dynamic negotiation. The technical approach involves web technologies like HTML, CSS, JavaScript, Python, and Node.js. The project is technically feasible and scalable, but lacks detailed baselines, datasets, and privacy considerations. The diagrams provide a clear process and data flow, supporting the text description.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>The workflow of EduFlex involves teacher login, dashboard management, class and resource management, student progress tracking, and report generation. The AI scheduling engine processes input data, simulates and analyzes schedules, and allows for admin review before final timetable publication.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1. The project addresses a relevant problem in educational scheduling with a unique AI-driven approach. 2. The use of a multi-agent system for dynamic negotiation is innovative.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed information on datasets and privacy compliance. 2. The baselines and evaluation metrics are not well-defined.</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1. The technical stack is feasible with current web technologies, but the scalability and latency considerations need more detail. 2. Security measures are not addressed in the presentation.</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Include privacy and security considerations to ensure compliance and data protection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Team Name (Registered on portal)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Last Formers - HARSHITA BHATIA.pdf</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>40</v>
+      </c>
+      <c r="K37" t="n">
+        <v>67</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>The project proposes an AI-powered real-time train traffic control system aimed at maximizing section throughput and optimizing track utilization. The solution involves scheduling and AI decision-making, utilizing technologies like FastAPI, Python, and web technologies for the frontend. The methodology includes loading data, running simulations, applying scheduling logic, and updating the frontend with results. The feasibility and impact highlight improvements in efficiency and passenger experience, with benefits in punctuality, cost optimization, and environmental impact. However, there are notable gaps in privacy, security, and deployment planning.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>The workflow involves loading data from CSV, running simulations, applying scheduling logic, resolving conflicts, and updating the frontend. The process is designed to enhance train traffic control through real-time AI decision-making.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant problem in train traffic control with a clear focus on maximizing throughput and optimizing track utilization. 2. The use of AI for real-time decision-making is innovative and has the potential to significantly improve efficiency and passenger experience.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed information on privacy and security measures, which are critical for deployment in real-world scenarios. 2. The deployment plan is vague, and there is insufficient information on how the system will be integrated with existing railway systems.</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1. The use of FastAPI and Python for backend development is appropriate for real-time applications, but the scalability of the solution is not fully addressed. 2. The choice of technologies like OR-Tools and simulation tools is sound, but more details on their integration and performance metrics are needed.</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1. Provide a more detailed deployment plan, including steps for integration with existing systems and user adoption strategies. 2. Address privacy and security concerns by outlining specific measures and compliance with relevant regulations. 3. Include more detailed latency and cost estimates to assess the feasibility of real-time operations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Matrix-Sutra</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Matrix-Sutra.pptx - JATIN CHAUHAN.pdf</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>40</v>
+      </c>
+      <c r="K38" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Matrix-Sutra's project aims to create a blockchain-based system for managing blue carbon credits, focusing on transparency and accuracy through AI and human validation. The system uses Polygon or Avalanche networks, Django for backend, and React.js for frontend. The project is designed to empower local communities and support climate goals by enhancing coastal ecosystem resilience. The flowchart on slide 6 provides a detailed view of the carbon credit lifecycle, including registration, data collection, validation, verification, issuance, and trading.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>The project workflow involves a comprehensive lifecycle for carbon credit generation and trading, integrating blockchain, AI, and human validation to ensure transparency and accuracy.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1. The project addresses a critical environmental issue by focusing on blue carbon ecosystems. 2. The use of blockchain and AI for transparency and accuracy is innovative and aligns with current technological trends.</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and cost estimates, which are crucial for evaluating feasibility. 2. Privacy and compliance aspects are minimally covered, which could be a significant oversight given the sensitive nature of environmental data.</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1. The choice of SQLite3 as the database may limit scalability, especially for a system expected to handle large datasets. 2. The integration of various technologies like blockchain, AI, and GIS requires careful consideration of interoperability and performance.</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and cost estimates to strengthen the feasibility analysis. 2. Consider using a more scalable database solution to handle potential growth in data volume. 3. Enhance the privacy and compliance section to address potential regulatory challenges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mission Samadhan</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Mission_Samadhan - AKSHAT AGARWAL.pdf</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>41</v>
+      </c>
+      <c r="K39" t="n">
+        <v>69</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Mission Samadhan presents a digital farm management portal aimed at enhancing biosecurity in pig and poultry farms. The solution includes personalized training, emergency alerts, and smart advisory services. The technical approach leverages existing smartphone infrastructure and help centers to minimize costs. The architecture is well-defined, but there are gaps in baselines, datasets, and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>The workflow involves data collection from various stakeholders, processed by an AI/ML engine for disease risk prediction and pesticide recommendations. Alerts and training are provided to farmers, with a focus on leveraging existing infrastructure to reduce costs.</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1. The project effectively leverages existing smartphone infrastructure and help centers, which is cost-effective and practical. 2. The architecture is well-defined, with a clear flow of data and interactions between stakeholders.</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. Privacy and compliance considerations are minimally addressed, which is a significant gap given the sensitive nature of the data involved.</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1. The use of AI/ML for disease risk prediction is promising, but the lack of detailed datasets and baselines raises concerns about the model's accuracy and reliability. 2. The deployment plan mentions cloud and offline/SMS support, but lacks specifics on scalability and latency.</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed information on the datasets and baselines used for AI/ML model training and evaluation. 2. Address privacy and compliance issues more thoroughly, possibly by including data anonymization techniques or compliance with relevant regulations. 3. Consider adding more detailed cost and latency estimates to strengthen the feasibility analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Neuro Ninjas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\NEURO_NINJAS - Sumit.pdf</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>41</v>
+      </c>
+      <c r="K40" t="n">
+        <v>69</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>The Neuro Ninjas team presents a multilingual chatbot system, BHASASETU, designed to assist students by answering queries in regional languages. The system uses speech-to-text and text-to-speech technologies, supported by natural language understanding for language and intent detection. It retrieves answers from a database and delivers responses via web or messaging apps. The architecture is well-documented, but there are gaps in baselines, privacy, and security considerations.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>The workflow involves a multilingual chatbot system that processes voice and text inputs using STT and TTS technologies. It employs NLU for language and intent detection, retrieves answers from a database, and delivers responses via web or messaging apps. The system logs interactions for continuous improvement.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1. The system's architecture is well-documented and clearly presented in the flowchart on slide 7. 2. The use of existing lightweight AI models like Whisper and IndicNLP enhances feasibility. 3. The solution addresses inclusivity by supporting multiple regional languages.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and privacy/compliance considerations. 2. Security measures are not adequately addressed, which is critical for a system handling potentially sensitive student data.</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>1. The integration of multiple technologies such as Whisper, Rasa NLU, and Coqui TTS is technically sound but requires careful orchestration to ensure seamless operation. 2. The potential latency in real-time voice translation needs more robust solutions beyond caching and optimized APIs.</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and metrics to evaluate the system's performance. 2. Address privacy and security concerns by outlining specific measures to protect user data. 3. Consider adding more detailed latency and cost estimates to strengthen the feasibility analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nexonic</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\NEXONIC PPT-1 - Harshit Shrivastava.pdf</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>41</v>
+      </c>
+      <c r="K41" t="n">
+        <v>69</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>The Nexonic team proposes a crowdsourced civic issue reporting and resolution system leveraging IoT and cloud technologies. The system includes a mobile platform for citizens to report issues, a real-time dashboard for government staff, and IoT-assisted automated reporting for streetlight faults. The technical approach involves sensor integration, fault detection, and communication modules. The feasibility analysis highlights technical, financial, and market viability, while the impact section emphasizes reduced downtime, improved safety, and energy efficiency. However, there are gaps in privacy/compliance and security considerations.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>The workflow involves citizens reporting issues via a mobile app, which are then monitored and resolved by government staff using a real-time dashboard. IoT sensors in streetlights automatically detect faults and communicate with a base station, which relays information to the app for quick resolution.</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1. The integration of IoT for automated fault detection in streetlights is innovative and aligns well with smart city initiatives. 2. The system's scalability and potential for large-scale deployment are well-articulated.</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed privacy and compliance considerations, which are critical for handling citizen data. 2. Security measures are not thoroughly addressed, leaving potential vulnerabilities in the system.</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1. The use of ESP32 and CAN Module for communication is technically sound, but the presentation could benefit from more detailed latency and cost estimates. 2. The feasibility analysis is strong, but assumptions and baselines are not clearly defined.</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1. Include a detailed privacy and compliance plan to address data protection concerns. 2. Enhance the security section with specific protocols and measures to safeguard the system. 3. Provide more concrete baselines and assumptions to strengthen the technical approach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NanoNexus</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\NanoNexus.PS77 - AJITA GUPTA.pdf</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>41</v>
+      </c>
+      <c r="K42" t="n">
+        <v>69</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>NanoNexus presents a hybrid system for detecting unauthorized electric fences in Kerala, combining ground-based sensors and future drone technology. The MVP is well-defined with clear architecture and scalability, but lacks detailed baselines and datasets. Metrics and KPIs are strong, focusing on wildlife and human safety. Privacy and compliance are addressed, but security and deployment plans need more detail.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>The workflow involves a core MVP with sensor units detecting high-voltage fences, processing data with Arduino, and sending alerts via GSM. Future enhancements include drone-based wide-area detection and AI analysis for virtual fencing. The system is designed to be scalable, eco-friendly, and compliant with local regulations.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1. The project has a clear and well-defined MVP with a strong focus on scalability and compliance with local regulations. 2. The use of both ground-based sensors and future drone technology is innovative and aligns with the theme of Smart Automation.</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. Security considerations are not thoroughly addressed, which could be a significant oversight given the sensitive nature of the data.</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-documented, but the deployment plan needs more detail, especially regarding the integration of drone technology. 2. The cost estimates are provided, but latency considerations are not fully explored.</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Enhance the security section to address potential vulnerabilities in the system. 3. Develop a more comprehensive deployment plan, particularly for the drone integration phase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Neuro Nova</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Neuro Nova SIH25016 - PRATYAKSH GUPTA.pdf</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>40</v>
+      </c>
+      <c r="K43" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Neuro Nova presents an automated student attendance system leveraging QR codes, biometrics, and facial recognition to enhance accuracy and efficiency. The system is designed to store data in a cloud-based database, providing analytics through a dashboard for stakeholders. The solution is technically viable and scalable, with strategies to address potential challenges such as high initial costs and data privacy concerns.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>The workflow for the automated student attendance system involves capturing attendance data using QR codes, biometrics, and facial recognition. This data is stored in a cloud-based database and analyzed through a dashboard accessible to students, faculty, and administrators. The system aims to improve accuracy and efficiency in attendance tracking while providing analytics for better engagement monitoring.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1. The integration of multiple technologies (QR codes, biometrics, facial recognition) to ensure high accuracy is commendable. 2. The system's scalability and potential for digital transformation in educational institutions are well-articulated.</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1. The baseline and assumptions are not clearly defined, leading to potential gaps in understanding the current state versus the proposed solution. 2. The deployment plan lacks detail on how the system will be rolled out across different institutions.</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1. The use of cloud services like AWS/Google Cloud for storage and dashboards is a strong technical choice, but the specific architecture details are sparse. 2. The security measures for handling biometric data need more elaboration, especially concerning encryption and compliance.</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and assumptions to strengthen the problem framing. 2. Elaborate on the deployment plan with specific steps and timelines. 3. Enhance the security section with detailed encryption methods and compliance strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Neuro Verse</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Neuro Verse- RAHUL RATHORE.pdf</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>41</v>
+      </c>
+      <c r="K44" t="n">
+        <v>69</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Neuro Verse presents an intelligent pesticide sprinkling system using AI and IoT to detect plant diseases and pests, aiming to reduce chemical use and improve crop yield. The system integrates a rover or drone with cameras and sensors, processing data on the edge to determine infection levels and apply pesticides accordingly. The approach is innovative, combining AI-powered detection with autonomous spraying, and is scalable across different crops and farms. However, there are gaps in baselines, privacy, and security considerations.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>The workflow involves capturing leaf images and environmental data using cameras and IoT sensors. An AI model processes this data to detect disease severity, deciding on pesticide application levels. The system logs data and repeats the process, aiming for reduced chemical use and improved crop yield.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1. The integration of AI and IoT for precision farming is innovative and addresses a significant problem in agriculture. 2. The system's scalability and adaptability across different crops and farms are strong points. 3. The use of real-time IoT analytics provides actionable insights for farmers.</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and privacy considerations, which are critical for deployment. 2. Security aspects are minimally covered, which could be a concern for data integrity and system reliability.</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1. The use of diverse sensors and AI models is technically sound, but the system's performance under varying environmental conditions needs more evidence. 2. The power management strategy is mentioned but requires more detailed analysis.</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and privacy compliance measures to strengthen the proposal. 2. Enhance the security framework to ensure data protection and system reliability. 3. Include more detailed cost and latency estimates to assess feasibility better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NeuroNauts</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\NeuroNauts - ANAND RAWAT.pdf</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>40</v>
+      </c>
+      <c r="K45" t="n">
+        <v>67</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>The NeuroNauts team presents 'CounselMate', an AI-powered platform designed to provide personalized career and education guidance. The solution is built on the MERN stack, ensuring scalability and robustness, and includes features like aptitude testing, personalized recommendations, and AI chat support. While the platform's architecture is well-defined, there are notable gaps in the evaluation plan, privacy, and security considerations.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>The workflow for the 'CounselMate' platform is comprehensive, covering user onboarding, aptitude testing, personalized recommendations, college discovery, learning resources, and AI chat support. The use of the MERN stack and AI for personalized guidance is a strong technical foundation.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1. The use of the MERN stack provides a solid technical foundation for scalability and robustness (Slide 3). 2. The platform's focus on personalized AI guidance is innovative and addresses a clear need in the education sector (Slide 2).</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1. The evaluation plan lacks clear metrics and KPIs, making it difficult to assess the platform's effectiveness (Slide 5). 2. Privacy and security considerations are minimally addressed, which could be a significant risk (Slide 4).</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-defined, but there is a lack of detailed latency and cost estimates, which are crucial for assessing feasibility (Slide 3). 2. The deployment plan is mentioned but lacks specifics on timelines and resource allocation (Slide 4).</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1. Develop a more detailed evaluation plan with specific metrics and KPIs to measure success (Slide 5). 2. Enhance privacy and security measures to protect user data and build trust (Slide 4). 3. Provide detailed cost and latency estimates to better understand the platform's operational requirements (Slide 3).</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NextGenNerds</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\NextGenNerds_ppt - TUSHAR BANSAL.pdf</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>41</v>
+      </c>
+      <c r="K46" t="n">
+        <v>69</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>The AyurSutra Panchakarma Patient Management and Therapy Scheduling Software by NextGenNerds presents a comprehensive solution for automating therapy scheduling and patient management in Ayurveda clinics. The project leverages a robust tech stack including Node.js, React, and MongoDB, with AI/ML capabilities for scheduling optimization. The solution is designed to be scalable and secure, with a focus on compliance with healthcare data privacy laws. However, the presentation lacks detailed baselines, datasets, and cost estimates, which are critical for evaluating the project's feasibility and impact.</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>The workflow for the AyurSutra software involves patient onboarding, health profiling, doctor review, AI-based scheduling, therapy sessions, and progress feedback, with iterative feedback loops and final reporting. The tech stack ensures a scalable and robust solution.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1. The project demonstrates a strong understanding of the problem space and offers a comprehensive solution for Ayurveda clinics. 2. The use of AI for scheduling optimization and blockchain for security is innovative and adds value to the solution.</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed information on baselines and datasets, which are crucial for evaluating the project's feasibility. 2. Cost estimates and a detailed deployment plan are missing, which raises concerns about the project's practical implementation.</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1. The tech stack is well-chosen for scalability and robustness, but the integration of AI/ML components needs more clarity. 2. The use of blockchain for security is promising, but details on its implementation and impact are sparse.</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1. Provide detailed baselines and datasets to strengthen the project's foundation. 2. Include cost estimates and a comprehensive deployment plan to address practical implementation concerns. 3. Elaborate on the AI/ML integration and blockchain security to enhance technical clarity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nudge</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Nudge - SAUMYA UPADHYAY.pdf</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>40</v>
+      </c>
+      <c r="K47" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>The team 'Nudge' presents a digital mental health support system for students, leveraging AI for early detection and support. The solution includes a chatbot, sentiment analysis, and peer support integration, with a focus on scalability and security. The presentation provides a strong problem framing and addresses privacy and security concerns effectively. However, it lacks detailed baselines, latency, and cost estimates, and the deployment plan is not fully fleshed out.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>The workflow involves a phased development process for a digital mental health support system, starting from research and prototyping to deployment. The critical flowchart outlines the methodology, emphasizing phases like chatbot development and sentiment analysis.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1. The problem is well-framed, addressing a significant issue in student mental health. 2. The technical approach is robust, with a clear focus on AI and scalability. 3. Privacy and security are well-considered, with end-to-end encryption and OAuth 2.0.</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and cost estimates, which are crucial for evaluating feasibility. 2. The deployment plan is not fully detailed, leaving questions about the implementation timeline.</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1. The use of AI and ML technologies like TensorFlow and BERT is appropriate for the problem domain. 2. The architecture is scalable, but more details on latency and cost management are needed.</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and cost estimates to strengthen the feasibility analysis. 2. Expand on the deployment plan with a clear timeline and milestones. 3. Consider including more detailed metrics and evaluation plans to measure success.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>QuantumForce</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\QuantumForce_Ppt - SUMIT SAHU.pdf</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>35</v>
+      </c>
+      <c r="K48" t="n">
+        <v>59</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>QuantumForce presents a smart classroom and timetable scheduling system leveraging AI for dynamic resource management. The solution is well-framed with a clear problem statement and proposed solution. The architecture is detailed, showcasing a robust technical approach with Python, React.js, and PostgreSQL. However, there are gaps in baseline establishment, privacy, and security considerations. The feasibility section addresses challenges with mitigation strategies, but lacks detailed latency and cost estimates. The impact is well-articulated, emphasizing educational efficiency and scalability.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>The workflow involves an AI-driven platform for classroom allocation and timetable scheduling, featuring dynamic updates and multi-user panels. The architecture diagram highlights key components like the scheduler engine and conflict resolver, supported by technologies such as Python and React.js.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1. The problem is well-framed with a clear solution leveraging AI for smart scheduling. 2. The architecture is robust, using modern technologies like Python and React.js, which are well-suited for the task.</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baseline comparisons and privacy considerations. 2. Security aspects are minimally covered, which is critical for a web-based platform.</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1. The use of OR-Tools for optimization is a strong choice, but more details on its integration with the system would be beneficial. 2. The lack of latency and cost estimates could impact the perceived feasibility of the solution.</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1. Include more detailed privacy and security measures to strengthen the proposal. 2. Provide baseline comparisons to better highlight the system's advantages over existing solutions. 3. Consider adding latency and cost estimates to improve the feasibility assessment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rebel Coders</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Rebellions - Aryaman Porwal.pdf</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>41</v>
+      </c>
+      <c r="K49" t="n">
+        <v>69</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Rebel Coders present MarineVoice, a crowdsourced ocean hazard reporting system integrating citizen reports, social media insights, and official alerts. The system aims to enhance disaster management through a mobile/web app for citizen reporting, a command dashboard for authorities, and an AI/NLP engine for data analysis. The technical approach is well-documented with a clear architecture diagram, but there are gaps in baselines, privacy, and security considerations.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>The MarineVoice workflow involves citizen registration and hazard reporting, data validation, and alert notifications. It integrates multiple data sources to provide a comprehensive disaster management tool.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>1. The integration of citizen reports, social media insights, and official alerts is innovative and enhances situational awareness. 2. The use of AI/NLP for data analysis and credibility scoring is a strong technical feature.</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and privacy considerations, which are critical for a system handling sensitive data. 2. Security measures are not well-addressed, posing potential risks.</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-documented, but the lack of latency and cost estimates could impact scalability. 2. The deployment plan is mentioned but lacks specific timelines and resource allocation.</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1. Include detailed privacy and security protocols to protect user data. 2. Provide baselines and benchmarks to measure system performance. 3. Consider adding latency and cost estimates to ensure scalability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Runtime Terror</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\RuntimeTerror - AKSHAY MISHRA.pdf</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>35</v>
+      </c>
+      <c r="K50" t="n">
+        <v>59</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>The project proposes a platform for crowdsourced ocean hazard reporting and social media analytics, leveraging geotagged citizen reports and NLP for hazard extraction. The system integrates with existing sensor data for validation and provides real-time analytics through dashboards and mobile apps. While the technical approach is well-defined, with a clear architecture and use of modern technologies, there are gaps in baseline establishment, privacy considerations, and detailed cost estimates.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>The workflow involves citizens submitting geotagged reports and social media posts being scraped for data. This data is validated and stored, then processed using NLP for hazard and sentiment extraction. The data is cross-validated with sensor data and analyzed for geo-clustering. Users, including analysts and officials, interact with the system through dashboards and mobile apps to view analytics, verify hazards, and send alerts, ultimately enabling disaster response.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1. The project addresses a critical need in disaster management by integrating citizen reports with social media analytics. 2. The use of NLP and geo-clustering adds significant value by enhancing data accuracy and relevance. 3. The technical stack is modern and scalable, utilizing cloud services and multilingual NLP models.</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and benchmarks for performance evaluation. 2. Privacy and compliance considerations are minimally addressed, which is crucial for handling sensitive data. 3. Cost and latency estimates are vague, which could impact the project's feasibility.</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-defined, but more details on the deployment plan and scalability strategies would strengthen the proposal. 2. The use of BERT for NLP is appropriate, but the integration with real-time data processing needs further elaboration. 3. Offline support is mentioned, but the technical implementation details are sparse.</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1. Include detailed baselines and metrics for evaluating system performance and impact. 2. Address privacy and compliance issues more comprehensively, possibly by consulting legal frameworks. 3. Provide a more detailed cost analysis and latency estimates to ensure the project's viability. 4. Consider adding more detailed deployment strategies and scalability plans to enhance technical feasibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Team GeForce</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\SIH GEFORCE PROJECT - ARYAN CHAUDHARY.pdf</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>40</v>
+      </c>
+      <c r="K51" t="n">
+        <v>67</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Team GeForce presents 'Questify', a gamified learning platform aimed at enhancing STEM education in rural areas. The solution includes interactive games, multilingual content, and offline functionality, supported by a teacher analytics dashboard. The technical approach leverages open-source frameworks and is designed for low-cost deployment. While the problem framing and architecture are strong, there are notable gaps in baselines, datasets, and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>The workflow for 'Questify' involves a gamified learning system with a student interface for playing STEM games, a Questify engine for data processing, and dashboards for teachers and admins to track progress and manage content. The system supports offline functionality and multilingual content, aiming for low-cost deployment.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1. The platform's focus on gamified learning and multilingual support is well-aligned with the needs of rural education. 2. The use of open-source frameworks and offline-first design is commendable for cost-effectiveness and accessibility.</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and datasets, which are crucial for evaluating the platform's effectiveness. 2. Privacy and security considerations are minimally addressed, which could be a significant oversight.</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>1. The technical stack is appropriate for the target environment, but more details on scalability and performance metrics would strengthen the proposal. 2. The integration of multilingual content is a strong point, but the implementation details are sparse.</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to support the evaluation plan. 2. Address privacy and security concerns more thoroughly, possibly by including compliance with relevant standards. 3. Consider a more detailed deployment and adoption strategy to ensure successful implementation in rural schools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CogniCore</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\SIH_CogniCOre - SAPTAK MONDAL.pdf</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>41</v>
+      </c>
+      <c r="K52" t="n">
+        <v>69</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>CogniCore presents a mobile-first platform for real-time public transport tracking in small cities, featuring a comprehensive architecture with driver and commuter apps, and an authority dashboard. The system uses AI for predictive ETAs and crowd-sourced data for reliability. The architecture is well-documented with a critical diagram showing data flows and processing steps. The project addresses scalability and deployment across multiple cities, with a focus on reducing wait times and increasing public transport trust.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>The workflow involves data ingestion from driver apps, processing through a stream processor, and storage in a location store. Predictive ETAs are generated and notifications are sent to commuters and authorities. The architecture supports real-time updates and analytics.</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1. The project demonstrates a strong understanding of the problem with a well-defined solution that leverages AI for predictive ETAs. 2. The architecture is robust and scalable, supporting multi-city deployment.</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>1. The assumptions and baselines are not clearly defined, which could impact the evaluation of the solution's effectiveness. 2. Privacy and compliance considerations are not thoroughly addressed.</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1. The use of AI/ML models for ETA predictions is a strong technical choice, but more details on model training and validation would strengthen the proposal. 2. The security aspects of the system, particularly data protection, need more emphasis.</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed assumptions and baselines to better frame the problem and solution. 2. Enhance the privacy and compliance section to address potential data protection concerns. 3. Consider adding more information on the security measures in place to protect user data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SMD4L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\SMD4L - PRIYANSH GUPTA.pdf</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>41</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>The SMD4L team presents an AI-based rockfall prediction and alert system for open-pit mines, integrating IoT sensors, drones, and machine learning models. The system aims to enhance worker safety and reduce financial losses by predicting hazards and sending real-time alerts. The technical approach is well-documented with a focus on scalability and flexibility, though some areas like baselines and privacy are less detailed.</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>The workflow involves a comprehensive process from requirement analysis to deployment and monitoring, emphasizing scalability and flexibility. The diagrams provide a clear view of the technical approach, architecture, and feasibility analysis.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1. The integration of IoT sensors, drones, and machine learning models is innovative and well-suited for the problem. 2. The focus on scalability and flexibility is commendable, making the solution adaptable to various mining conditions.</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and privacy considerations, which are critical for evaluating the system's effectiveness and compliance. 2. The latency and cost estimates are vague, which could impact the feasibility assessment.</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1. The use of a hybrid AI framework combining geospatial, sensor, and environmental data is technically sound. 2. The architecture is well-documented, but more details on the security measures would strengthen the proposal.</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and privacy compliance measures to enhance the proposal's credibility. 2. Include specific latency and cost estimates to better assess the system's feasibility and scalability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Scripting Spartans</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Scripting Spartans - mayank bhardwaj.pdf</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>40</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>The Scripting Spartans present a telemedicine platform, Jeevika, aimed at improving healthcare access in rural Nabha. The solution includes multilingual video consultations, health record management, and an AI symptom checker. The architecture leverages React, Node.js, MongoDB, and MySQL, with a focus on offline capabilities to address connectivity issues. While the technical feasibility is strong, the presentation lacks detailed baselines, datasets, and a comprehensive deployment plan.</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>The workflow involves users interacting with the system through authentication, followed by consultations with doctors and pharmacy owners. The architecture supports multilingual consultations and offline access, addressing rural connectivity and literacy challenges.</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1. The platform addresses critical rural healthcare challenges with offline capabilities and multilingual support. 2. The use of established technologies like React and Node.js ensures technical feasibility.</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed information on baselines and datasets, which are crucial for evaluating the solution's effectiveness. 2. The deployment plan is not well-defined, making it difficult to assess the implementation approach.</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-structured, but more details on scalability and latency/cost estimates are needed. 2. Security measures are mentioned but not detailed, which is critical for handling sensitive health data.</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Develop a comprehensive deployment plan to outline the steps for implementation and adoption. 3. Include detailed security protocols to ensure data privacy and compliance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Tech Knights</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Tech Knights - VANSHIKA GOYAL.pdf</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>40</v>
+      </c>
+      <c r="K55" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>The Tech Knights team proposes a multilingual AI-powered chatbot to enhance preventive healthcare awareness in rural areas. The system supports regional languages and integrates with government health databases for real-time information. The technical approach involves capturing user queries via WhatsApp/SMS/Voice, processing them through language detection and NLP models, and delivering responses in the user's language. The chatbot is designed to be accessible through various communication channels, addressing challenges like dialect variations and misinformation.</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>The workflow involves capturing user queries through various communication channels, processing them using language detection and NLP models, integrating knowledge from government health databases, and delivering responses in the user's language. The system is designed to be scalable and accessible, with a focus on addressing dialect variations and misinformation.</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1. The integration with government health databases for real-time information is a strong point, ensuring the reliability of the data provided. 2. The use of multilingual transformer models to support regional languages is commendable, as it addresses the diverse linguistic needs of rural communities.</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and metrics/KPIs for evaluating the chatbot's performance. 2. Privacy and security considerations are minimally addressed, which is critical for handling sensitive health data.</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1. The use of pre-trained multilingual models like mBERT and IndicBERT is technically sound, but the presentation could benefit from more details on how these models will be fine-tuned for dialect adaptation. 2. The architecture's scalability is well-considered with cloud services, but latency and cost estimates are not provided.</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1. Include more detailed metrics and evaluation plans to measure the chatbot's effectiveness and user satisfaction. 2. Address privacy and security concerns more thoroughly, possibly by outlining data encryption methods and compliance with health data regulations. 3. Provide a clearer deployment plan, including timelines and resource allocation, to enhance the feasibility of the project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tech Crusaders</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Tech_Crusaders_SIH - ABHAY VERMA.pdf</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>41</v>
+      </c>
+      <c r="K56" t="n">
+        <v>69</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>The Tech Crusaders present a smart tourist safety and travel assistance system leveraging AI, geofencing, and blockchain. The system aims to enhance tourist safety through real-time disaster prediction and cultural recommendations. The architecture is well-documented with a focus on user authentication, trip planning, safety analysis, and disaster prediction. However, there are notable gaps in baselines, privacy, and security considerations.</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>The workflow involves user authentication, trip planning, safety analysis, and disaster prediction, supported by an AI chatbot for continuous assistance. The system architecture and flowchart provide a clear depiction of the technical approach and safe path workflow.</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1. The system's architecture is well-documented, providing a clear understanding of the technical approach (Slide 3). 2. The integration of AI, geofencing, and blockchain is innovative and addresses a significant problem in tourist safety.</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and privacy considerations, which are critical for a system handling sensitive user data. 2. Security measures are not adequately addressed, posing potential risks.</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1. The use of readily available APIs and open datasets is a strong point, but the system's scalability and cost estimates need further elaboration. 2. The offline SMS-based communication is a practical feature, but its implementation details are sparse.</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and privacy measures to strengthen the system's credibility. 2. Enhance the security section to address potential vulnerabilities. 3. Include more comprehensive cost and latency estimates to assess the system's feasibility better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The AMAZERS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\The AMAZERS (SIH-2025) - KIRATH SHARMA.pdf</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>41</v>
+      </c>
+      <c r="K57" t="n">
+        <v>69</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>The AMAZERS have proposed a digital system for smart classroom and timetable scheduling, focusing on automation and optimization. The system uses Python and SQL for schedule optimization and real-time adjustments, leveraging web technologies and automation tools. While the problem framing and architecture are strong, there are notable gaps in baselines, datasets, and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>The workflow involves data entry, constraint management, and schedule optimization using Python and SQL. It aims to provide real-time adjustments and reduce manual effort, ensuring balanced timetables.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1. The system effectively automates and optimizes timetable scheduling, reducing manual effort and ensuring balanced timetables (Slide 4). 2. The use of proven web technologies and Python for AI-driven scheduling is a strong technical choice (Slide 5).</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness (Slide 7). 2. Privacy and security considerations are minimally addressed, which could be a significant risk (Slide 5).</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1. The integration of n8n for workflow automation is a technically sound decision, but more details on its implementation would strengthen the proposal (Slide 3). 2. The system's scalability is mentioned, but specific metrics or tests to support this claim are missing (Slide 5).</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed information on datasets and baselines to better evaluate the system's performance (Slide 7). 2. Address privacy and security concerns more thoroughly, possibly with a dedicated section on compliance and data protection strategies (Slide 5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>The Bug Slayers</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\The Bug Slayers- YASH SRIVASTAVA.pdf</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>40</v>
+      </c>
+      <c r="K58" t="n">
+        <v>67</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>The Bug Slayers present a telemedicine solution, MedConnect, aimed at improving healthcare access in rural areas. The solution is built with a React.js frontend and a Node.js backend, featuring AI-powered tools like a symptom checker. The architecture diagram supports claims of scalability and security, with end-to-end encryption and mobile compatibility. However, the presentation lacks detailed baselines, datasets, and cost estimates, which limits the overall score.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>The workflow involves a web application that connects rural patients with doctors through video calls and chatbots. The architecture supports scalability and security, with a focus on overcoming rural connectivity challenges.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant social issue by improving healthcare access in rural areas. 2. The architecture is well-designed with a focus on scalability and security, as shown in the diagram on slide 3.</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the solution's effectiveness. 2. Cost estimates and a detailed deployment plan are missing, which are essential for assessing feasibility.</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>1. The use of proven technologies like React.js and Node.js is a strong point, but the presentation should include more technical details on AI implementation and data handling. 2. The security measures are well-covered, but privacy and compliance aspects need more attention.</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1. Include detailed baselines and datasets to strengthen the evaluation plan. 2. Provide cost estimates and a comprehensive deployment plan to enhance the feasibility analysis. 3. Expand on privacy and compliance strategies to ensure user trust and regulatory adherence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>The Uninitialized</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\The Uninitialized - VANSH SHARMA.pdf</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>41</v>
+      </c>
+      <c r="K59" t="n">
+        <v>69</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>The YatraLive project presents a smartphone-based solution for real-time bus tracking in Tier-2 cities in India. The system uses driver and passenger apps to capture and display GPS data, with a cloud server and database for processing and storage. The architecture is designed to be cost-effective, scalable, and user-friendly, with offline caching for connectivity issues. While the problem framing and architecture are strong, there are notable gaps in baselines, datasets, and detailed metrics or KPIs.</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>The YatraLive workflow involves capturing GPS data from driver smartphones, processing it on a cloud server, and displaying it on passenger apps. The architecture includes offline caching to handle connectivity issues, ensuring continuous service. The system is designed to be scalable and adaptable to regional needs.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1. The solution effectively addresses the problem of real-time bus tracking in Tier-2 cities with a cost-effective and scalable approach. 2. The use of existing smartphone hardware and cloud services is a practical choice that aligns with the project's goals.</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1. The proposal lacks detailed baselines and datasets, which are crucial for evaluating the system's performance. 2. Metrics and KPIs are not clearly defined, making it difficult to assess the project's success.</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-designed, but more information on latency and cost estimates would strengthen the proposal. 2. The security measures mentioned are basic; more robust solutions should be considered.</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1. Include detailed baselines and datasets to provide a clearer picture of the project's starting point and data sources. 2. Define specific metrics and KPIs to measure the system's effectiveness and impact. 3. Consider enhancing security measures to protect user data more comprehensively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tuastra</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Tuastra- NAVEEN SRIVASTAVA.pdf</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>41</v>
+      </c>
+      <c r="K60" t="n">
+        <v>69</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>The project by Team Tuastra aims to develop a digital mental health support system for students in higher education, leveraging AI-assisted support with NLP-driven triage and peer support. The architecture is well-defined with a full-stack solution using React, Node.js, and MongoDB, and includes AI tools for sentiment analysis. The workflow is detailed, covering student login, AI chatbot interaction, and counselor booking, with anonymized data collection for trend analysis. However, there are gaps in baselines, latency/cost estimates, and deployment plan details.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>The workflow involves a comprehensive user journey from student login to AI chatbot interaction, resource access, peer support, and counselor booking. Anonymized data is collected for trend analysis and policy recommendations.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1. The project addresses a critical need for mental health support in higher education, with a well-defined architecture and workflow. 2. The use of AI for sentiment analysis and NLP-driven triage is innovative and enhances the platform's effectiveness.</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and cost estimates, which are crucial for evaluating feasibility. 2. The deployment plan and adoption path are not thoroughly addressed, leaving questions about real-world implementation.</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1. The architecture is robust, utilizing modern technologies like React, Node.js, and MongoDB, but more details on scalability and performance metrics would strengthen the proposal. 2. Security measures such as encryption and role-based access control are well-considered, but further elaboration on data privacy compliance is needed.</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and cost estimates to better assess the project's feasibility. 2. Develop a comprehensive deployment plan and adoption strategy to ensure successful implementation and uptake in educational institutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>VRINDAVAN CODERS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\VRINDAVAN CODERS - DEEPAK YADAV.pdf</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>41</v>
+      </c>
+      <c r="K61" t="n">
+        <v>69</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>The presentation by VRINDAVAN CODERS outlines a Smart Tourist Safety Monitoring and Incident Response System using AI, geo-fencing, and blockchain-based digital IDs. The system aims to enhance tourist safety by detecting threats early, providing real-time monitoring, and automating incident responses. The technical approach involves various technologies like AI, IoT, and cloud infrastructure. The feasibility analysis highlights technical, economic, and operational aspects, while addressing challenges such as privacy concerns and infrastructure gaps. The impact and benefits section emphasizes improved safety, economic gains, and technological advancements.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>The workflow involves a smart safety system for tourists that uses AI to detect dangers, geo-fencing for alerts, and blockchain for secure identification. The process flow includes AI monitoring, emergency response, and blockchain digital IDs.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant problem in tourist safety with a comprehensive approach using modern technologies. 2. The use of AI, geo-fencing, and blockchain is innovative and aligns with current technological trends.</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the system's effectiveness. 2. The deployment plan and adoption path are minimally covered, leaving questions about practical implementation.</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>1. The integration of multiple technologies like AI, IoT, and blockchain is technically challenging and requires robust interoperability solutions. 2. The system's scalability and latency considerations are addressed but need more detailed analysis.</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and datasets to strengthen the evaluation plan. 2. Expand on the deployment plan and adoption path to give a clearer picture of how the system will be implemented and adopted in real-world scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Vision Flux</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\Vision flux - SAMARTH KESHARI.pdf</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>41</v>
+      </c>
+      <c r="K62" t="n">
+        <v>69</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Vision Flux's project 'FloatChat' aims to create an AI-powered conversational interface for ARGO ocean data discovery and visualization. The project effectively frames the problem of complex ocean data retrieval and visualization, proposing a solution that leverages AI for natural language queries and dynamic visualization. The architecture is well-documented, showcasing a robust system involving a user interface, a large language model, and a data pipeline. However, the presentation lacks detailed baselines, privacy considerations, and security measures. The use of various technologies like Streamlit, Flask, and Azure services is noted, but the economic and deployment aspects are not thoroughly addressed.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>The workflow involves converting NetCDF files to SQL for efficient data retrieval, using AI for natural language queries, and providing dynamic visualization through interactive dashboards. The architecture includes a user interface, a large language model for query translation, and a data pipeline for processing and visualizing data.</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant challenge in ocean data retrieval and visualization, making it accessible to both experts and non-technical users. 2. The architecture is well-documented and leverages a variety of modern technologies, indicating a strong technical foundation.</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and privacy considerations, which are critical for a project dealing with potentially sensitive data. 2. Security measures are not adequately addressed, which could pose risks in deployment.</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1. The use of AI for natural language queries and dynamic visualization is innovative, but the accuracy and reliability of the AI responses need further validation. 2. The scalability of the solution is well-considered, but latency and cost estimates are not thoroughly detailed.</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and privacy measures to strengthen the project's credibility. 2. Include a comprehensive security plan to address potential vulnerabilities. 3. Expand on the deployment and adoption strategies to ensure the solution's practical viability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Bit Wizards</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\bit wizards - Gauri.pdf</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>41</v>
+      </c>
+      <c r="K63" t="n">
+        <v>69</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>The Bit Wizards team presents a digital learning platform aimed at rural school students, focusing on bilingual content, offline access, and AI-based features. The platform is designed to overcome connectivity issues and improve educational outcomes through gamification and personalized learning paths. The technical stack includes JavaScript, Python, React.js, Node.js, MongoDB, and AI tools. While the problem framing and architecture are strong, there are notable gaps in baselines, datasets, and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>The workflow involves interactions between students, teachers, and admins, with activities such as uploading/viewing books, generating quizzes, managing books, and accessing dashboards. The technical stack is well-defined, using modern web technologies and AI tools.</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1. The platform addresses a critical need for digital education in rural areas with poor connectivity. 2. The use of bilingual content and offline access is a strong point that enhances accessibility.</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and datasets, which are crucial for evaluating the platform's effectiveness. 2. Privacy and compliance considerations are not adequately addressed.</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1. The technical stack is robust, but the presentation could benefit from more detailed latency and cost estimates. 2. Security measures like JWT Authentication are mentioned, but further details on implementation are needed.</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1. Include more detailed baselines and datasets to strengthen the evaluation plan. 2. Address privacy and compliance issues more thoroughly to ensure user data protection. 3. Provide more information on the deployment plan and how the platform will be adopted by the target audience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Byte Breakers</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\byte breakers - SATYAM GARG.pdf</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>41</v>
+      </c>
+      <c r="K64" t="n">
+        <v>69</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>The Byte Breakers team proposes a mobile travel app to improve data collection for transportation planning by replacing manual surveys with a real-time, scalable solution. The app uses React Native, Node.js, and MongoDB to capture trip data, with a focus on user consent and privacy. The project is well-framed with a clear problem statement and a strong technical foundation, but lacks detailed baselines, metrics, and a comprehensive deployment plan.</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>The workflow begins with user access to the website, followed by consent acquisition. The app automatically captures basic trip details and prompts users for additional information. Data is validated and used in a scientist dashboard for analysis.</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant problem in transportation planning by providing a scalable and real-time data collection solution. 2. The use of proven technologies like React Native and MongoDB ensures scalability and cross-device compatibility.</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and metrics to evaluate the solution's effectiveness. 2. The deployment plan and adoption path are not thoroughly addressed, leaving questions about real-world implementation.</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1. The architecture is modular, which is beneficial for future updates and feature expansion. 2. The project ensures secure data transmission and end-to-end encryption, which is crucial for user privacy.</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and metrics to measure the app's impact and effectiveness. 2. Develop a comprehensive deployment plan to outline the steps for real-world implementation and adoption.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CodeSages</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\codesages - PARAS MITTAL.pdf</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>41</v>
+      </c>
+      <c r="K65" t="n">
+        <v>69</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>CodeSages presents KrishiAI, an AI-powered platform for crop yield prediction and optimization, targeting small farmers to increase productivity and reduce costs. The solution integrates AI with real-time weather, soil, and satellite data, offering personalized recommendations and a multilingual, voice-enabled interface. The technical approach includes a robust backend and frontend architecture, leveraging open-source datasets and APIs. The system is designed to be scalable and accessible, addressing challenges like limited local data and low tech literacy. The impact promises increased yield, cost savings, and broader economic, social, and environmental benefits.</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>The workflow for KrishiAI involves data collection, feature engineering, model training, and deployment, with a feedback loop for continuous improvement. The system architecture supports scalability and accessibility, with a focus on overcoming challenges like limited local data and low tech literacy.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1. The integration of AI with real-time weather, soil, and satellite data is innovative and enhances the platform's predictive capabilities. 2. The multilingual, voice-enabled interface is a strong feature for inclusivity, especially in regions with low tech literacy.</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and metrics for evaluating the model's performance. 2. Privacy and security considerations are minimally addressed, which could be a concern for user data protection.</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1. The use of open-source datasets and APIs is commendable, but the reliance on regional averages for cold starts may affect accuracy. 2. The architecture is well-designed for scalability, but latency and cost estimates are not clearly defined.</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed baselines and metrics to evaluate the model's performance effectively. 2. Enhance the privacy and security sections to address potential data protection concerns. 3. Consider including latency and cost estimates to better understand the system's operational efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>gpt-coders</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\gpt-coders - PARV AGARWAL.pdf</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>46</v>
+      </c>
+      <c r="K66" t="n">
+        <v>77</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>The project proposes a smart crop advisory system targeting small and marginal farmers, leveraging a voice-first app in multiple languages, AI-driven pest detection, climate-smart alerts, and market price intelligence. The technical stack includes React Native, TensorFlow Lite, and various APIs for voice and NLP. The system is designed for scalability and aims to improve yield, reduce crop loss, and boost farmer income. However, there are gaps in addressing privacy, security, and detailed cost estimates.</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>The workflow begins with farmer onboarding, followed by soil health analysis, weather advisory, pest detection and treatment, market price analysis, and advisory delivery. The flowchart on slide 4 provides a clear depiction of this process.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant problem for small and marginal farmers, with a focus on digital inclusion through a voice-first app. 2. The use of proven AI models and government support enhances the feasibility of the solution.</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>1. The deck lacks detailed information on privacy and security measures, which are critical for handling sensitive farmer data. 2. Cost and latency estimates are not well addressed, which could impact the scalability and adoption of the solution.</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1. The technical stack is robust, utilizing modern frameworks and APIs, but the integration of these components is not fully detailed. 2. The reliance on multiple languages and offline capabilities is a strong point, but the implementation details are sparse.</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>1. Provide more detailed privacy and security plans to ensure data protection. 2. Include comprehensive cost and latency estimates to better assess the solution's scalability. 3. Expand on the deployment plan to cover potential challenges in different regions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HariSentinels</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\harisentinels[1] - NIMIT GOYAL.pdf</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>40</v>
+      </c>
+      <c r="K67" t="n">
+        <v>67</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>EduCursus by HariSentinels aims to provide personalized career and education guidance using AI and psychometrics. The project is built on a scalable Google Cloud infrastructure, integrating AI-driven recommendations and psychometric analysis. The technical approach includes a cloud-based infrastructure with data storage, processing, and personalized recommendations. The user journey is well-defined, from registration to receiving AI-driven career advice. The project emphasizes scalability, integration with learning platforms, and continuous improvement. However, there are gaps in baselines, latency/cost estimates, and a detailed deployment plan.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>The workflow of EduCursus involves a cloud-based infrastructure that processes user data to provide personalized career guidance. The user journey starts with registration, followed by data processing and AI-driven recommendations, culminating in personalized career advice. The system is designed to be scalable and integrates with existing learning platforms.</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1. The project leverages a robust cloud infrastructure, ensuring scalability and security (slide 5). 2. The integration of AI and psychometrics for personalized guidance is innovative and addresses a significant market need (slide 2).</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and latency/cost estimates, which are crucial for evaluating the project's feasibility (slide 5). 2. The deployment plan is not thoroughly detailed, which could impact the project's implementation (slide 5).</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1. The use of Google Cloud and Vertex AI is a strong technical choice, providing scalability and security (slide 5). 2. However, the technical stack lacks detailed latency and cost estimates, which are important for assessing performance and budget (slide 5).</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1. Provide detailed baselines and latency/cost estimates to strengthen the feasibility analysis (slide 5). 2. Develop a more comprehensive deployment plan to ensure smooth implementation and adoption (slide 5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>return_True</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\return_True - ANSHITVA MISHRA.pdf</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>40</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>The project 'CareerMargDarshan' by team return_True aims to provide a comprehensive career and education guidance system. It includes an aptitude quiz, course-to-career mapping, and a government college directory. The technical approach involves a React.js frontend and a Node.js backend with MongoDB for data storage. The solution addresses the awareness gap in career guidance but lacks detailed baselines, datasets, and privacy considerations.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>The workflow is designed to guide students through career and education decisions using a structured system. It includes user registration, aptitude assessment, career mapping, and college selection, with an admin side for management and analytics.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1. The project addresses a significant gap in career guidance, providing a structured approach to help students make informed decisions. 2. The use of AI-driven search and filters in the college directory is innovative and enhances user experience.</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>1. The project lacks detailed information on baselines and datasets, which are crucial for evaluating the effectiveness of the solution. 2. Privacy and security considerations are not adequately addressed, which could be a concern for user data protection.</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>1. The choice of React.js and Node.js is appropriate for scalability, but the database choice between MongoDB and Neon needs clarification. 2. The architecture diagram provides a good overview, but more details on latency and cost estimates would strengthen the technical feasibility.</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>1. Include more detailed baselines and datasets to support the claims made in the project. 2. Address privacy and security concerns by outlining specific measures to protect user data. 3. Provide a clearer deployment plan to ensure smooth implementation and adoption.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Debug Thugs</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D:\Openai Hackathon Evaluation\ppt\sih - debug thugs - MADHAV GUPTA.pdf</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>41</v>
+      </c>
+      <c r="K69" t="n">
+        <v>69</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>The Debug Thugs team presents a telemedicine solution aimed at improving healthcare access in rural areas. The solution includes multilingual support, AI symptom checking, and real-time pharmacy integration. The architecture is scalable and uses technologies like Python, Node.js, AWS, and MongoDB. While the problem is well-framed and the datasets are appropriate, there are gaps in baselines, privacy, and security considerations. The deployment plan and adoption path are promising, but more detailed metrics and cost estimates are needed.</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>The workflow for the telemedicine application involves user registration, AI symptom checking, video consultations, and prescription management. The system integrates with pharmacy stock systems and addresses challenges like low digital literacy and connectivity issues.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1. The solution effectively combines multiple features like AI symptom checking and multilingual support to address rural healthcare challenges. 2. The use of real-time pharmacy integration is innovative and beneficial for ensuring medicine availability.</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1. The presentation lacks detailed baselines and metrics for evaluating the solution's effectiveness. 2. Privacy and security considerations are minimally addressed, which is critical for healthcare applications.</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1. The architecture is well-designed with scalable technologies, but more information on latency and cost estimates would strengthen the proposal. 2. The AI chatbot's integration and performance metrics are not clearly defined.</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>1. Include detailed privacy and security measures to ensure patient data protection. 2. Provide a more comprehensive evaluation plan with specific metrics and KPIs to measure success. 3. Consider adding more detailed cost analysis and latency estimates to enhance the technical feasibility.</t>
         </is>
       </c>
     </row>
